--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2727084565597124</v>
+        <v>0.2727084565592577</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0183211281406912</v>
+        <v>0.01832112814049047</v>
       </c>
       <c r="E2">
         <v>0.5076099186807284</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3613028413765491</v>
+        <v>0.361302841376542</v>
       </c>
       <c r="J2">
-        <v>11.69377123958304</v>
+        <v>11.6937712395831</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2377615391649073</v>
+        <v>0.2377615391647794</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01315553277132153</v>
+        <v>0.01315553277150983</v>
       </c>
       <c r="E3">
-        <v>0.4300204024172842</v>
+        <v>0.4300204024172629</v>
       </c>
       <c r="F3">
         <v>2.075415987538449</v>
       </c>
       <c r="G3">
-        <v>1.50881195020925</v>
+        <v>1.508811950209264</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0.3033421457555576</v>
       </c>
       <c r="J3">
-        <v>10.04256912593479</v>
+        <v>10.04256912593473</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2165912512587767</v>
+        <v>0.2165912512587056</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01049955908047195</v>
+        <v>0.01049955908024458</v>
       </c>
       <c r="E4">
-        <v>0.3845339572092001</v>
+        <v>0.3845339572092072</v>
       </c>
       <c r="F4">
-        <v>1.836136722157207</v>
+        <v>1.836136722157221</v>
       </c>
       <c r="G4">
         <v>1.329616867553185</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2697856975777881</v>
+        <v>0.2697856975777739</v>
       </c>
       <c r="J4">
         <v>9.053882329755851</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2080261827808982</v>
+        <v>0.2080261827807561</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009522137646145623</v>
+        <v>0.009522137646355233</v>
       </c>
       <c r="E5">
-        <v>0.3664328010711699</v>
+        <v>0.3664328010711984</v>
       </c>
       <c r="F5">
-        <v>1.743552730487949</v>
+        <v>1.74355273048792</v>
       </c>
       <c r="G5">
         <v>1.260611497245137</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2565230240194794</v>
+        <v>0.2565230240194865</v>
       </c>
       <c r="J5">
-        <v>8.655949870439827</v>
+        <v>8.655949870439855</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.206607429760453</v>
+        <v>0.2066074297606946</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00936554418642821</v>
+        <v>0.009365544186506369</v>
       </c>
       <c r="E6">
-        <v>0.3634506581525159</v>
+        <v>0.3634506581524377</v>
       </c>
       <c r="F6">
-        <v>1.728449473985137</v>
+        <v>1.728449473985151</v>
       </c>
       <c r="G6">
-        <v>1.249373736450409</v>
+        <v>1.249373736450451</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2543431134414291</v>
+        <v>0.2543431134413936</v>
       </c>
       <c r="J6">
-        <v>8.590138345065725</v>
+        <v>8.590138345065668</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.216475501296415</v>
+        <v>0.2164755012967703</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01048598151997027</v>
+        <v>0.0104859815199756</v>
       </c>
       <c r="E7">
-        <v>0.3842882034667099</v>
+        <v>0.3842882034667312</v>
       </c>
       <c r="F7">
         <v>1.834869416449877</v>
       </c>
       <c r="G7">
-        <v>1.328670989348566</v>
+        <v>1.328670989348595</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0.2696052815752665</v>
       </c>
       <c r="J7">
-        <v>9.048497183107997</v>
+        <v>9.048497183108083</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2605925173289165</v>
+        <v>0.2605925173289307</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01641631782388764</v>
+        <v>0.0164163178241008</v>
       </c>
       <c r="E8">
         <v>0.4803385737035981</v>
       </c>
       <c r="F8">
-        <v>2.350498065737952</v>
+        <v>2.350498065737966</v>
       </c>
       <c r="G8">
-        <v>1.716143832367649</v>
+        <v>1.716143832367678</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3408298837496133</v>
+        <v>0.3408298837495991</v>
       </c>
       <c r="J8">
-        <v>11.11830843146879</v>
+        <v>11.11830843146893</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3499408467377094</v>
+        <v>0.349940846736871</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0336343534854322</v>
+        <v>0.03363435348554233</v>
       </c>
       <c r="E9">
-        <v>0.6921499724139011</v>
+        <v>0.6921499724138869</v>
       </c>
       <c r="F9">
         <v>3.613719390565308</v>
       </c>
       <c r="G9">
-        <v>2.681709046345333</v>
+        <v>2.681709046345304</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5025584813535318</v>
+        <v>0.5025584813534678</v>
       </c>
       <c r="J9">
-        <v>15.45677101045101</v>
+        <v>15.45677101045118</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4182981063318891</v>
+        <v>0.4182981063322444</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05275491987904601</v>
+        <v>0.05275491987903003</v>
       </c>
       <c r="E10">
         <v>0.8749245283789691</v>
       </c>
       <c r="F10">
-        <v>4.822881313747274</v>
+        <v>4.822881313747303</v>
       </c>
       <c r="G10">
-        <v>3.620728353613458</v>
+        <v>3.620728353613501</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6468879784052675</v>
+        <v>0.6468879784052888</v>
       </c>
       <c r="J10">
-        <v>18.97210404508638</v>
+        <v>18.97210404508633</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4502990727045386</v>
+        <v>0.4502990727049081</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06404604837318928</v>
+        <v>0.06404604837300631</v>
       </c>
       <c r="E11">
         <v>0.9688814347511396</v>
       </c>
       <c r="F11">
-        <v>5.482537411827934</v>
+        <v>5.482537411827906</v>
       </c>
       <c r="G11">
-        <v>4.137544822635576</v>
+        <v>4.137544822635547</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7227291113900307</v>
+        <v>0.7227291113900165</v>
       </c>
       <c r="J11">
-        <v>20.70051887425427</v>
+        <v>20.70051887425433</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4625857736325116</v>
+        <v>0.4625857736324264</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06886620158554813</v>
+        <v>0.0688662015856476</v>
       </c>
       <c r="E12">
-        <v>1.006718270298038</v>
+        <v>1.006718270298009</v>
       </c>
       <c r="F12">
-        <v>5.75502226518924</v>
+        <v>5.755022265189211</v>
       </c>
       <c r="G12">
-        <v>4.351826711709933</v>
+        <v>4.351826711709904</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7535815839265609</v>
+        <v>0.7535815839265894</v>
       </c>
       <c r="J12">
-        <v>21.3816573070805</v>
+        <v>21.38165730708045</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4599313220640653</v>
+        <v>0.4599313220636816</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06780005716816007</v>
+        <v>0.06780005716813875</v>
       </c>
       <c r="E13">
-        <v>0.9984534251080106</v>
+        <v>0.9984534251080532</v>
       </c>
       <c r="F13">
-        <v>5.695175254410628</v>
+        <v>5.695175254410771</v>
       </c>
       <c r="G13">
-        <v>4.304725142493609</v>
+        <v>4.304725142493737</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7468271877285773</v>
+        <v>0.7468271877285986</v>
       </c>
       <c r="J13">
-        <v>21.23360239524879</v>
+        <v>21.23360239524902</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4513062491816555</v>
+        <v>0.4513062491819397</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06443035809307673</v>
+        <v>0.0644303580930643</v>
       </c>
       <c r="E14">
-        <v>0.9719435993604719</v>
+        <v>0.9719435993604293</v>
       </c>
       <c r="F14">
-        <v>5.504446572894864</v>
+        <v>5.504446572894807</v>
       </c>
       <c r="G14">
         <v>4.154757621064903</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7252194100597862</v>
+        <v>0.7252194100598075</v>
       </c>
       <c r="J14">
         <v>20.75596155284677</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.446046515015567</v>
+        <v>0.4460465150164481</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06244395325283492</v>
+        <v>0.06244395325293084</v>
       </c>
       <c r="E15">
-        <v>0.9560270286136756</v>
+        <v>0.9560270286136898</v>
       </c>
       <c r="F15">
-        <v>5.390844737354087</v>
+        <v>5.390844737354143</v>
       </c>
       <c r="G15">
-        <v>4.065539142157249</v>
+        <v>4.065539142157292</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7122880271609091</v>
+        <v>0.7122880271608736</v>
       </c>
       <c r="J15">
-        <v>20.46716997131222</v>
+        <v>20.46716997131216</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4162279377017484</v>
+        <v>0.416227937701521</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,22 +953,22 @@
         <v>0.05208186817084481</v>
       </c>
       <c r="E16">
-        <v>0.8690537761292063</v>
+        <v>0.8690537761292632</v>
       </c>
       <c r="F16">
-        <v>4.782489796644057</v>
+        <v>4.782489796644086</v>
       </c>
       <c r="G16">
-        <v>3.589178008850809</v>
+        <v>3.58917800885078</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.642185913085477</v>
+        <v>0.6421859130854841</v>
       </c>
       <c r="J16">
-        <v>18.86234915142234</v>
+        <v>18.86234915142228</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3981900725721061</v>
+        <v>0.3981900725722767</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04648557760685712</v>
+        <v>0.04648557760674876</v>
       </c>
       <c r="E17">
-        <v>0.8188635801966342</v>
+        <v>0.8188635801966484</v>
       </c>
       <c r="F17">
-        <v>4.441265074585147</v>
+        <v>4.441265074585118</v>
       </c>
       <c r="G17">
-        <v>3.323113584989358</v>
+        <v>3.323113584989343</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6021648201445302</v>
+        <v>0.6021648201444805</v>
       </c>
       <c r="J17">
-        <v>17.91554529728057</v>
+        <v>17.91554529728052</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3878974186894624</v>
+        <v>0.3878974186896471</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04349700747410701</v>
+        <v>0.04349700747408924</v>
       </c>
       <c r="E18">
-        <v>0.7909567954979764</v>
+        <v>0.7909567954979622</v>
       </c>
       <c r="F18">
-        <v>4.254762746788941</v>
+        <v>4.25476274678897</v>
       </c>
       <c r="G18">
-        <v>3.178063142816612</v>
+        <v>3.178063142816598</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.580050659944618</v>
+        <v>0.5800506599446393</v>
       </c>
       <c r="J18">
-        <v>17.38249844864214</v>
+        <v>17.38249844864191</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.384425680160092</v>
+        <v>0.3844256801596941</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04252079065032532</v>
+        <v>0.04252079065023295</v>
       </c>
       <c r="E19">
         <v>0.7816571546501763</v>
       </c>
       <c r="F19">
-        <v>4.193134810519751</v>
+        <v>4.19313481051978</v>
       </c>
       <c r="G19">
-        <v>3.130193127091289</v>
+        <v>3.130193127091275</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.572703447855595</v>
+        <v>0.5727034478555808</v>
       </c>
       <c r="J19">
-        <v>17.2038120172648</v>
+        <v>17.20381201726474</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4001014886784446</v>
+        <v>0.4001014886783025</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04705651429142677</v>
+        <v>0.04705651429161506</v>
       </c>
       <c r="E20">
         <v>0.8241029521885537</v>
       </c>
       <c r="F20">
-        <v>4.476539575739821</v>
+        <v>4.476539575739764</v>
       </c>
       <c r="G20">
-        <v>3.350578256402073</v>
+        <v>3.350578256402045</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6063277121276514</v>
+        <v>0.6063277121276442</v>
       </c>
       <c r="J20">
-        <v>18.01509478581858</v>
+        <v>18.01509478581852</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4538346783538856</v>
+        <v>0.4538346783544256</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0654034849935563</v>
+        <v>0.06540348499355808</v>
       </c>
       <c r="E21">
         <v>0.9796613219326957</v>
       </c>
       <c r="F21">
-        <v>5.559777809227825</v>
+        <v>5.559777809227768</v>
       </c>
       <c r="G21">
         <v>4.198241305268596</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7315010046449046</v>
+        <v>0.7315010046448691</v>
       </c>
       <c r="J21">
         <v>20.89544820305258</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4899672879574553</v>
+        <v>0.48996728795764</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08073582650876077</v>
+        <v>0.08073582650886202</v>
       </c>
       <c r="E22">
-        <v>1.095169651985586</v>
+        <v>1.095169651985628</v>
       </c>
       <c r="F22">
-        <v>6.406685708156772</v>
+        <v>6.406685708156829</v>
       </c>
       <c r="G22">
-        <v>4.866017818756845</v>
+        <v>4.866017818756916</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.826397128956998</v>
+        <v>0.8263971289569696</v>
       </c>
       <c r="J22">
-        <v>22.94066676902014</v>
+        <v>22.94066676902008</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4705722074495924</v>
+        <v>0.4705722074496634</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07216000864992367</v>
+        <v>0.07216000864980288</v>
       </c>
       <c r="E23">
-        <v>1.031899655492239</v>
+        <v>1.031899655492225</v>
       </c>
       <c r="F23">
-        <v>5.93847801520468</v>
+        <v>5.938478015204566</v>
       </c>
       <c r="G23">
-        <v>4.496341917158318</v>
+        <v>4.496341917158247</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7742131071786389</v>
+        <v>0.774213107178646</v>
       </c>
       <c r="J23">
-        <v>21.83024198147569</v>
+        <v>21.83024198147552</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3992370985490368</v>
+        <v>0.3992370985491789</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04679769250912891</v>
+        <v>0.04679769250886423</v>
       </c>
       <c r="E24">
-        <v>0.8217313253243503</v>
+        <v>0.8217313253243788</v>
       </c>
       <c r="F24">
-        <v>4.460562307909157</v>
+        <v>4.460562307909214</v>
       </c>
       <c r="G24">
-        <v>3.338137207822101</v>
+        <v>3.338137207822172</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6044429268837845</v>
+        <v>0.6044429268837987</v>
       </c>
       <c r="J24">
-        <v>17.97005385632951</v>
+        <v>17.97005385632946</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3253780745526598</v>
+        <v>0.3253780745525034</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02812675379137275</v>
+        <v>0.0281267537915717</v>
       </c>
       <c r="E25">
-        <v>0.6312747685522666</v>
+        <v>0.6312747685522382</v>
       </c>
       <c r="F25">
-        <v>3.234451945849827</v>
+        <v>3.234451945849798</v>
       </c>
       <c r="G25">
-        <v>2.389854731066421</v>
+        <v>2.389854731066407</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0.4554513461332022</v>
       </c>
       <c r="J25">
-        <v>14.23994348622364</v>
+        <v>14.23994348622338</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2727084565592577</v>
+        <v>0.2727084565597124</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01832112814049047</v>
+        <v>0.0183211281406912</v>
       </c>
       <c r="E2">
         <v>0.5076099186807284</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.361302841376542</v>
+        <v>0.3613028413765491</v>
       </c>
       <c r="J2">
-        <v>11.6937712395831</v>
+        <v>11.69377123958304</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2377615391647794</v>
+        <v>0.2377615391649073</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01315553277150983</v>
+        <v>0.01315553277132153</v>
       </c>
       <c r="E3">
-        <v>0.4300204024172629</v>
+        <v>0.4300204024172842</v>
       </c>
       <c r="F3">
         <v>2.075415987538449</v>
       </c>
       <c r="G3">
-        <v>1.508811950209264</v>
+        <v>1.50881195020925</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0.3033421457555576</v>
       </c>
       <c r="J3">
-        <v>10.04256912593473</v>
+        <v>10.04256912593479</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2165912512587056</v>
+        <v>0.2165912512587767</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01049955908024458</v>
+        <v>0.01049955908047195</v>
       </c>
       <c r="E4">
-        <v>0.3845339572092072</v>
+        <v>0.3845339572092001</v>
       </c>
       <c r="F4">
-        <v>1.836136722157221</v>
+        <v>1.836136722157207</v>
       </c>
       <c r="G4">
         <v>1.329616867553185</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2697856975777739</v>
+        <v>0.2697856975777881</v>
       </c>
       <c r="J4">
         <v>9.053882329755851</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2080261827807561</v>
+        <v>0.2080261827808982</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009522137646355233</v>
+        <v>0.009522137646145623</v>
       </c>
       <c r="E5">
-        <v>0.3664328010711984</v>
+        <v>0.3664328010711699</v>
       </c>
       <c r="F5">
-        <v>1.74355273048792</v>
+        <v>1.743552730487949</v>
       </c>
       <c r="G5">
         <v>1.260611497245137</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2565230240194865</v>
+        <v>0.2565230240194794</v>
       </c>
       <c r="J5">
-        <v>8.655949870439855</v>
+        <v>8.655949870439827</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2066074297606946</v>
+        <v>0.206607429760453</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009365544186506369</v>
+        <v>0.00936554418642821</v>
       </c>
       <c r="E6">
-        <v>0.3634506581524377</v>
+        <v>0.3634506581525159</v>
       </c>
       <c r="F6">
-        <v>1.728449473985151</v>
+        <v>1.728449473985137</v>
       </c>
       <c r="G6">
-        <v>1.249373736450451</v>
+        <v>1.249373736450409</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2543431134413936</v>
+        <v>0.2543431134414291</v>
       </c>
       <c r="J6">
-        <v>8.590138345065668</v>
+        <v>8.590138345065725</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2164755012967703</v>
+        <v>0.216475501296415</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0104859815199756</v>
+        <v>0.01048598151997027</v>
       </c>
       <c r="E7">
-        <v>0.3842882034667312</v>
+        <v>0.3842882034667099</v>
       </c>
       <c r="F7">
         <v>1.834869416449877</v>
       </c>
       <c r="G7">
-        <v>1.328670989348595</v>
+        <v>1.328670989348566</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0.2696052815752665</v>
       </c>
       <c r="J7">
-        <v>9.048497183108083</v>
+        <v>9.048497183107997</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2605925173289307</v>
+        <v>0.2605925173289165</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0164163178241008</v>
+        <v>0.01641631782388764</v>
       </c>
       <c r="E8">
         <v>0.4803385737035981</v>
       </c>
       <c r="F8">
-        <v>2.350498065737966</v>
+        <v>2.350498065737952</v>
       </c>
       <c r="G8">
-        <v>1.716143832367678</v>
+        <v>1.716143832367649</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3408298837495991</v>
+        <v>0.3408298837496133</v>
       </c>
       <c r="J8">
-        <v>11.11830843146893</v>
+        <v>11.11830843146879</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.349940846736871</v>
+        <v>0.3499408467377094</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03363435348554233</v>
+        <v>0.0336343534854322</v>
       </c>
       <c r="E9">
-        <v>0.6921499724138869</v>
+        <v>0.6921499724139011</v>
       </c>
       <c r="F9">
         <v>3.613719390565308</v>
       </c>
       <c r="G9">
-        <v>2.681709046345304</v>
+        <v>2.681709046345333</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5025584813534678</v>
+        <v>0.5025584813535318</v>
       </c>
       <c r="J9">
-        <v>15.45677101045118</v>
+        <v>15.45677101045101</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4182981063322444</v>
+        <v>0.4182981063318891</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05275491987903003</v>
+        <v>0.05275491987904601</v>
       </c>
       <c r="E10">
         <v>0.8749245283789691</v>
       </c>
       <c r="F10">
-        <v>4.822881313747303</v>
+        <v>4.822881313747274</v>
       </c>
       <c r="G10">
-        <v>3.620728353613501</v>
+        <v>3.620728353613458</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6468879784052888</v>
+        <v>0.6468879784052675</v>
       </c>
       <c r="J10">
-        <v>18.97210404508633</v>
+        <v>18.97210404508638</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4502990727049081</v>
+        <v>0.4502990727045386</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06404604837300631</v>
+        <v>0.06404604837318928</v>
       </c>
       <c r="E11">
         <v>0.9688814347511396</v>
       </c>
       <c r="F11">
-        <v>5.482537411827906</v>
+        <v>5.482537411827934</v>
       </c>
       <c r="G11">
-        <v>4.137544822635547</v>
+        <v>4.137544822635576</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7227291113900165</v>
+        <v>0.7227291113900307</v>
       </c>
       <c r="J11">
-        <v>20.70051887425433</v>
+        <v>20.70051887425427</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4625857736324264</v>
+        <v>0.4625857736325116</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0688662015856476</v>
+        <v>0.06886620158554813</v>
       </c>
       <c r="E12">
-        <v>1.006718270298009</v>
+        <v>1.006718270298038</v>
       </c>
       <c r="F12">
-        <v>5.755022265189211</v>
+        <v>5.75502226518924</v>
       </c>
       <c r="G12">
-        <v>4.351826711709904</v>
+        <v>4.351826711709933</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7535815839265894</v>
+        <v>0.7535815839265609</v>
       </c>
       <c r="J12">
-        <v>21.38165730708045</v>
+        <v>21.3816573070805</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4599313220636816</v>
+        <v>0.4599313220640653</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06780005716813875</v>
+        <v>0.06780005716816007</v>
       </c>
       <c r="E13">
-        <v>0.9984534251080532</v>
+        <v>0.9984534251080106</v>
       </c>
       <c r="F13">
-        <v>5.695175254410771</v>
+        <v>5.695175254410628</v>
       </c>
       <c r="G13">
-        <v>4.304725142493737</v>
+        <v>4.304725142493609</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7468271877285986</v>
+        <v>0.7468271877285773</v>
       </c>
       <c r="J13">
-        <v>21.23360239524902</v>
+        <v>21.23360239524879</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4513062491819397</v>
+        <v>0.4513062491816555</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0644303580930643</v>
+        <v>0.06443035809307673</v>
       </c>
       <c r="E14">
-        <v>0.9719435993604293</v>
+        <v>0.9719435993604719</v>
       </c>
       <c r="F14">
-        <v>5.504446572894807</v>
+        <v>5.504446572894864</v>
       </c>
       <c r="G14">
         <v>4.154757621064903</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7252194100598075</v>
+        <v>0.7252194100597862</v>
       </c>
       <c r="J14">
         <v>20.75596155284677</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4460465150164481</v>
+        <v>0.446046515015567</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06244395325293084</v>
+        <v>0.06244395325283492</v>
       </c>
       <c r="E15">
-        <v>0.9560270286136898</v>
+        <v>0.9560270286136756</v>
       </c>
       <c r="F15">
-        <v>5.390844737354143</v>
+        <v>5.390844737354087</v>
       </c>
       <c r="G15">
-        <v>4.065539142157292</v>
+        <v>4.065539142157249</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7122880271608736</v>
+        <v>0.7122880271609091</v>
       </c>
       <c r="J15">
-        <v>20.46716997131216</v>
+        <v>20.46716997131222</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.416227937701521</v>
+        <v>0.4162279377017484</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,22 +953,22 @@
         <v>0.05208186817084481</v>
       </c>
       <c r="E16">
-        <v>0.8690537761292632</v>
+        <v>0.8690537761292063</v>
       </c>
       <c r="F16">
-        <v>4.782489796644086</v>
+        <v>4.782489796644057</v>
       </c>
       <c r="G16">
-        <v>3.58917800885078</v>
+        <v>3.589178008850809</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6421859130854841</v>
+        <v>0.642185913085477</v>
       </c>
       <c r="J16">
-        <v>18.86234915142228</v>
+        <v>18.86234915142234</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3981900725722767</v>
+        <v>0.3981900725721061</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04648557760674876</v>
+        <v>0.04648557760685712</v>
       </c>
       <c r="E17">
-        <v>0.8188635801966484</v>
+        <v>0.8188635801966342</v>
       </c>
       <c r="F17">
-        <v>4.441265074585118</v>
+        <v>4.441265074585147</v>
       </c>
       <c r="G17">
-        <v>3.323113584989343</v>
+        <v>3.323113584989358</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6021648201444805</v>
+        <v>0.6021648201445302</v>
       </c>
       <c r="J17">
-        <v>17.91554529728052</v>
+        <v>17.91554529728057</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3878974186896471</v>
+        <v>0.3878974186894624</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04349700747408924</v>
+        <v>0.04349700747410701</v>
       </c>
       <c r="E18">
-        <v>0.7909567954979622</v>
+        <v>0.7909567954979764</v>
       </c>
       <c r="F18">
-        <v>4.25476274678897</v>
+        <v>4.254762746788941</v>
       </c>
       <c r="G18">
-        <v>3.178063142816598</v>
+        <v>3.178063142816612</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5800506599446393</v>
+        <v>0.580050659944618</v>
       </c>
       <c r="J18">
-        <v>17.38249844864191</v>
+        <v>17.38249844864214</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3844256801596941</v>
+        <v>0.384425680160092</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04252079065023295</v>
+        <v>0.04252079065032532</v>
       </c>
       <c r="E19">
         <v>0.7816571546501763</v>
       </c>
       <c r="F19">
-        <v>4.19313481051978</v>
+        <v>4.193134810519751</v>
       </c>
       <c r="G19">
-        <v>3.130193127091275</v>
+        <v>3.130193127091289</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5727034478555808</v>
+        <v>0.572703447855595</v>
       </c>
       <c r="J19">
-        <v>17.20381201726474</v>
+        <v>17.2038120172648</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4001014886783025</v>
+        <v>0.4001014886784446</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04705651429161506</v>
+        <v>0.04705651429142677</v>
       </c>
       <c r="E20">
         <v>0.8241029521885537</v>
       </c>
       <c r="F20">
-        <v>4.476539575739764</v>
+        <v>4.476539575739821</v>
       </c>
       <c r="G20">
-        <v>3.350578256402045</v>
+        <v>3.350578256402073</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6063277121276442</v>
+        <v>0.6063277121276514</v>
       </c>
       <c r="J20">
-        <v>18.01509478581852</v>
+        <v>18.01509478581858</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4538346783544256</v>
+        <v>0.4538346783538856</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06540348499355808</v>
+        <v>0.0654034849935563</v>
       </c>
       <c r="E21">
         <v>0.9796613219326957</v>
       </c>
       <c r="F21">
-        <v>5.559777809227768</v>
+        <v>5.559777809227825</v>
       </c>
       <c r="G21">
         <v>4.198241305268596</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7315010046448691</v>
+        <v>0.7315010046449046</v>
       </c>
       <c r="J21">
         <v>20.89544820305258</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.48996728795764</v>
+        <v>0.4899672879574553</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08073582650886202</v>
+        <v>0.08073582650876077</v>
       </c>
       <c r="E22">
-        <v>1.095169651985628</v>
+        <v>1.095169651985586</v>
       </c>
       <c r="F22">
-        <v>6.406685708156829</v>
+        <v>6.406685708156772</v>
       </c>
       <c r="G22">
-        <v>4.866017818756916</v>
+        <v>4.866017818756845</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8263971289569696</v>
+        <v>0.826397128956998</v>
       </c>
       <c r="J22">
-        <v>22.94066676902008</v>
+        <v>22.94066676902014</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4705722074496634</v>
+        <v>0.4705722074495924</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07216000864980288</v>
+        <v>0.07216000864992367</v>
       </c>
       <c r="E23">
-        <v>1.031899655492225</v>
+        <v>1.031899655492239</v>
       </c>
       <c r="F23">
-        <v>5.938478015204566</v>
+        <v>5.93847801520468</v>
       </c>
       <c r="G23">
-        <v>4.496341917158247</v>
+        <v>4.496341917158318</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.774213107178646</v>
+        <v>0.7742131071786389</v>
       </c>
       <c r="J23">
-        <v>21.83024198147552</v>
+        <v>21.83024198147569</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3992370985491789</v>
+        <v>0.3992370985490368</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04679769250886423</v>
+        <v>0.04679769250912891</v>
       </c>
       <c r="E24">
-        <v>0.8217313253243788</v>
+        <v>0.8217313253243503</v>
       </c>
       <c r="F24">
-        <v>4.460562307909214</v>
+        <v>4.460562307909157</v>
       </c>
       <c r="G24">
-        <v>3.338137207822172</v>
+        <v>3.338137207822101</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6044429268837987</v>
+        <v>0.6044429268837845</v>
       </c>
       <c r="J24">
-        <v>17.97005385632946</v>
+        <v>17.97005385632951</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3253780745525034</v>
+        <v>0.3253780745526598</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0281267537915717</v>
+        <v>0.02812675379137275</v>
       </c>
       <c r="E25">
-        <v>0.6312747685522382</v>
+        <v>0.6312747685522666</v>
       </c>
       <c r="F25">
-        <v>3.234451945849798</v>
+        <v>3.234451945849827</v>
       </c>
       <c r="G25">
-        <v>2.389854731066407</v>
+        <v>2.389854731066421</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0.4554513461332022</v>
       </c>
       <c r="J25">
-        <v>14.23994348622338</v>
+        <v>14.23994348622364</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2727084565597124</v>
+        <v>0.2727021363932067</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0183211281406912</v>
+        <v>0.01834498132842199</v>
       </c>
       <c r="E2">
-        <v>0.5076099186807284</v>
+        <v>0.5076445348890388</v>
       </c>
       <c r="F2">
-        <v>2.503884367039277</v>
+        <v>2.498714106560783</v>
       </c>
       <c r="G2">
-        <v>1.832289578626288</v>
+        <v>0.6323938846806811</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.198340961532651</v>
       </c>
       <c r="I2">
-        <v>0.3613028413765491</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.69377123958304</v>
+        <v>0.3611068621642133</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.69190815749226</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2377615391649073</v>
+        <v>0.2377572557912089</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01315553277132153</v>
+        <v>0.01318886084258253</v>
       </c>
       <c r="E3">
-        <v>0.4300204024172842</v>
+        <v>0.4300666115273017</v>
       </c>
       <c r="F3">
-        <v>2.075415987538449</v>
+        <v>2.071205919072511</v>
       </c>
       <c r="G3">
-        <v>1.50881195020925</v>
+        <v>0.5180277164900673</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9903764421504917</v>
       </c>
       <c r="I3">
-        <v>0.3033421457555576</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.04256912593479</v>
+        <v>0.3031901484315469</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.04127221318086</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2165912512587767</v>
+        <v>0.2165879819486491</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01049955908047195</v>
+        <v>0.01053633993930347</v>
       </c>
       <c r="E4">
-        <v>0.3845339572092001</v>
+        <v>0.384583901501955</v>
       </c>
       <c r="F4">
-        <v>1.836136722157207</v>
+        <v>1.83244904414407</v>
       </c>
       <c r="G4">
-        <v>1.329616867553185</v>
+        <v>0.4542722846835545</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8755683962259297</v>
       </c>
       <c r="I4">
-        <v>0.2697856975777881</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.053882329755851</v>
+        <v>0.2696566284437409</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.052870545952146</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2080261827808982</v>
+        <v>0.2080232805400755</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009522137646145623</v>
+        <v>0.009559851994252355</v>
       </c>
       <c r="E5">
-        <v>0.3664328010711699</v>
+        <v>0.3664836405312926</v>
       </c>
       <c r="F5">
-        <v>1.743552730487949</v>
+        <v>1.740064818388731</v>
       </c>
       <c r="G5">
-        <v>1.260611497245137</v>
+        <v>0.4296244537342631</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8314539196469468</v>
       </c>
       <c r="I5">
-        <v>0.2565230240194794</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.655949870439827</v>
+        <v>0.2564025299417452</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.655042242822788</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.206607429760453</v>
+        <v>0.206604586009334</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00936554418642821</v>
+        <v>0.009403387915334349</v>
       </c>
       <c r="E6">
-        <v>0.3634506581525159</v>
+        <v>0.3635016136646314</v>
       </c>
       <c r="F6">
-        <v>1.728449473985137</v>
+        <v>1.724994033045036</v>
       </c>
       <c r="G6">
-        <v>1.249373736450409</v>
+        <v>0.4256047142649209</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8242754908189909</v>
       </c>
       <c r="I6">
-        <v>0.2543431134414291</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.590138345065725</v>
+        <v>0.2542240029705525</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.589247374924213</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.216475501296415</v>
+        <v>0.2164722371089454</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01048598151997027</v>
+        <v>0.01052277674742186</v>
       </c>
       <c r="E7">
-        <v>0.3842882034667099</v>
+        <v>0.3843381621243438</v>
       </c>
       <c r="F7">
-        <v>1.834869416449877</v>
+        <v>1.831184481364062</v>
       </c>
       <c r="G7">
-        <v>1.328670989348566</v>
+        <v>0.4539348237038467</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8749633105171739</v>
       </c>
       <c r="I7">
-        <v>0.2696052815752665</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.048497183107997</v>
+        <v>0.2694763309129797</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.047486848573413</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2605925173289165</v>
+        <v>0.2605869577438256</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01641631782388764</v>
+        <v>0.01644401246809402</v>
       </c>
       <c r="E8">
-        <v>0.4803385737035981</v>
+        <v>0.4803780486037326</v>
       </c>
       <c r="F8">
-        <v>2.350498065737952</v>
+        <v>2.345675447692471</v>
       </c>
       <c r="G8">
-        <v>1.716143832367649</v>
+        <v>0.5914223367507532</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.123580018945347</v>
       </c>
       <c r="I8">
-        <v>0.3408298837496133</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>11.11830843146879</v>
+        <v>0.3406500969409265</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.1166561030139</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3499408467377094</v>
+        <v>0.3499280374985858</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0336343534854322</v>
+        <v>0.03361751142204739</v>
       </c>
       <c r="E9">
-        <v>0.6921499724139011</v>
+        <v>0.692126104709061</v>
       </c>
       <c r="F9">
-        <v>3.613719390565308</v>
+        <v>3.605881257702151</v>
       </c>
       <c r="G9">
-        <v>2.681709046345333</v>
+        <v>0.9297970546284802</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.747253874573317</v>
       </c>
       <c r="I9">
-        <v>0.5025584813535318</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>15.45677101045101</v>
+        <v>0.5022287955846707</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.45311682978115</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4182981063318891</v>
+        <v>0.4182762842972636</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05275491987904601</v>
+        <v>0.05267078409959502</v>
       </c>
       <c r="E10">
-        <v>0.8749245283789691</v>
+        <v>0.874787242862908</v>
       </c>
       <c r="F10">
-        <v>4.822881313747274</v>
+        <v>4.811756001412931</v>
       </c>
       <c r="G10">
-        <v>3.620728353613458</v>
+        <v>1.255521326288516</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.356869130846917</v>
       </c>
       <c r="I10">
-        <v>0.6468879784052675</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>18.97210404508638</v>
+        <v>0.6463730664175671</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.96593846685931</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4502990727045386</v>
+        <v>0.4502714285517015</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06404604837318928</v>
+        <v>0.06391539506746469</v>
       </c>
       <c r="E11">
-        <v>0.9688814347511396</v>
+        <v>0.9686570935091225</v>
       </c>
       <c r="F11">
-        <v>5.482537411827934</v>
+        <v>5.469404741400496</v>
       </c>
       <c r="G11">
-        <v>4.137544822635576</v>
+        <v>1.433865248342101</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.69316159292525</v>
       </c>
       <c r="I11">
-        <v>0.7227291113900307</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.70051887425427</v>
+        <v>0.7220913999865246</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.69270601018684</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4625857736325116</v>
+        <v>0.4625555216749291</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06886620158554813</v>
+        <v>0.06871422855646081</v>
       </c>
       <c r="E12">
-        <v>1.006718270298038</v>
+        <v>1.006452030371122</v>
       </c>
       <c r="F12">
-        <v>5.75502226518924</v>
+        <v>5.741007746390807</v>
       </c>
       <c r="G12">
-        <v>4.351826711709933</v>
+        <v>1.507653083757219</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.832712269200584</v>
       </c>
       <c r="I12">
-        <v>0.7535815839265609</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>21.3816573070805</v>
+        <v>0.7528878294743677</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.37309982582605</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4599313220640653</v>
+        <v>0.4599016534839109</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06780005716816007</v>
+        <v>0.06765287524207508</v>
       </c>
       <c r="E13">
-        <v>0.9984534251080106</v>
+        <v>0.9981967041492652</v>
       </c>
       <c r="F13">
-        <v>5.695175254410628</v>
+        <v>5.681357262466179</v>
       </c>
       <c r="G13">
-        <v>4.304725142493609</v>
+        <v>1.491441043990292</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.802032256053167</v>
       </c>
       <c r="I13">
-        <v>0.7468271877285773</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>21.23360239524879</v>
+        <v>0.7461460289828565</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.22521185236798</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4513062491816555</v>
+        <v>0.4512783998808487</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06443035809307673</v>
+        <v>0.06429803707140813</v>
       </c>
       <c r="E14">
-        <v>0.9719435993604719</v>
+        <v>0.9717160239000435</v>
       </c>
       <c r="F14">
-        <v>5.504446572894864</v>
+        <v>5.491244203450435</v>
       </c>
       <c r="G14">
-        <v>4.154757621064903</v>
+        <v>1.439795678977703</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.704369091492879</v>
       </c>
       <c r="I14">
-        <v>0.7252194100597862</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>20.75596155284677</v>
+        <v>0.7245773141804079</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.74809026417944</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.446046515015567</v>
+        <v>0.4460197209949968</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06244395325283492</v>
+        <v>0.06232019247780585</v>
       </c>
       <c r="E15">
-        <v>0.9560270286136756</v>
+        <v>0.9558159742670114</v>
       </c>
       <c r="F15">
-        <v>5.390844737354087</v>
+        <v>5.378001549729731</v>
       </c>
       <c r="G15">
-        <v>4.065539142157249</v>
+        <v>1.409050432948192</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.646282260180712</v>
       </c>
       <c r="I15">
-        <v>0.7122880271609091</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>20.46716997131222</v>
+        <v>0.7116684416501755</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.45959894117573</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4162279377017484</v>
+        <v>0.4162064505643883</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05208186817084481</v>
+        <v>0.05200035263883684</v>
       </c>
       <c r="E16">
-        <v>0.8690537761292063</v>
+        <v>0.8689212029204612</v>
       </c>
       <c r="F16">
-        <v>4.782489796644057</v>
+        <v>4.771482004399161</v>
       </c>
       <c r="G16">
-        <v>3.589178008850809</v>
+        <v>1.244615055182621</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.336354173535284</v>
       </c>
       <c r="I16">
-        <v>0.642185913085477</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>18.86234915142234</v>
+        <v>0.6416779746470596</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.8562776989059</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3981900725721061</v>
+        <v>0.3981713191274139</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04648557760685712</v>
+        <v>0.04642516754806891</v>
       </c>
       <c r="E17">
-        <v>0.8188635801966342</v>
+        <v>0.8187681522482819</v>
       </c>
       <c r="F17">
-        <v>4.441265074585147</v>
+        <v>4.431227346167958</v>
       </c>
       <c r="G17">
-        <v>3.323113584989358</v>
+        <v>1.152547292450279</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.163429925526856</v>
       </c>
       <c r="I17">
-        <v>0.6021648201445302</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>17.91554529728057</v>
+        <v>0.6017134858125388</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.91023969680958</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3878974186894624</v>
+        <v>0.3878800885172353</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04349700747410701</v>
+        <v>0.04344735841209335</v>
       </c>
       <c r="E18">
-        <v>0.7909567954979764</v>
+        <v>0.7908797217399126</v>
       </c>
       <c r="F18">
-        <v>4.254762746788941</v>
+        <v>4.24523882842621</v>
       </c>
       <c r="G18">
-        <v>3.178063142816612</v>
+        <v>1.102278681271898</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.069221048526799</v>
       </c>
       <c r="I18">
-        <v>0.580050659944618</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>17.38249844864214</v>
+        <v>0.5796285952588391</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.37758989283907</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.384425680160092</v>
+        <v>0.3844088094660236</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04252079065032532</v>
+        <v>0.04247457740387262</v>
       </c>
       <c r="E19">
-        <v>0.7816571546501763</v>
+        <v>0.7815858529011592</v>
       </c>
       <c r="F19">
-        <v>4.193134810519751</v>
+        <v>4.183778250566235</v>
       </c>
       <c r="G19">
-        <v>3.130193127091289</v>
+        <v>1.085676316309318</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.038140780913395</v>
       </c>
       <c r="I19">
-        <v>0.572703447855595</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>17.2038120172648</v>
+        <v>0.5722908074932036</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.19903140470001</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4001014886784446</v>
+        <v>0.4000824604585063</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04705651429142677</v>
+        <v>0.04699400748526372</v>
       </c>
       <c r="E20">
-        <v>0.8241029521885537</v>
+        <v>0.8240039006090285</v>
       </c>
       <c r="F20">
-        <v>4.476539575739821</v>
+        <v>4.466403396661832</v>
       </c>
       <c r="G20">
-        <v>3.350578256402073</v>
+        <v>1.162059197760797</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.181273304710331</v>
       </c>
       <c r="I20">
-        <v>0.6063277121276514</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>18.01509478581858</v>
+        <v>0.6058707123809128</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.00971240206121</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4538346783538856</v>
+        <v>0.4538063074624432</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0654034849935563</v>
+        <v>0.06526691624520353</v>
       </c>
       <c r="E21">
-        <v>0.9796613219326957</v>
+        <v>0.9794254751986102</v>
       </c>
       <c r="F21">
-        <v>5.559777809227825</v>
+        <v>5.546398493137673</v>
       </c>
       <c r="G21">
-        <v>4.198241305268596</v>
+        <v>1.454774840773268</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.732683780974867</v>
       </c>
       <c r="I21">
-        <v>0.7315010046449046</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>20.89544820305258</v>
+        <v>0.7308477427220978</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.88742825229542</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4899672879574553</v>
+        <v>0.4899302756795834</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08073582650876077</v>
+        <v>0.08052756727622601</v>
       </c>
       <c r="E22">
-        <v>1.095169651985586</v>
+        <v>1.094787361693449</v>
       </c>
       <c r="F22">
-        <v>6.406685708156772</v>
+        <v>6.390418694381651</v>
       </c>
       <c r="G22">
-        <v>4.866017818756845</v>
+        <v>1.684381011167062</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.167802090843438</v>
       </c>
       <c r="I22">
-        <v>0.826397128956998</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>22.94066676902014</v>
+        <v>0.8255548741633021</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.930159653494</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4705722074495924</v>
+        <v>0.4705401290157027</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07216000864992367</v>
+        <v>0.07199296107364539</v>
       </c>
       <c r="E23">
-        <v>1.031899655492239</v>
+        <v>1.031603086480047</v>
       </c>
       <c r="F23">
-        <v>5.93847801520468</v>
+        <v>5.923850680620603</v>
       </c>
       <c r="G23">
-        <v>4.496341917158318</v>
+        <v>1.557369195504108</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.926860635040555</v>
       </c>
       <c r="I23">
-        <v>0.7742131071786389</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>21.83024198147569</v>
+        <v>0.7734796950232692</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.82116048805665</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3992370985490368</v>
+        <v>0.3992181950071796</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04679769250912891</v>
+        <v>0.0467361378293667</v>
       </c>
       <c r="E24">
-        <v>0.8217313253243503</v>
+        <v>0.8216339211014656</v>
       </c>
       <c r="F24">
-        <v>4.460562307909157</v>
+        <v>4.450470772086248</v>
       </c>
       <c r="G24">
-        <v>3.338137207822101</v>
+        <v>1.157750700167455</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.173190340488091</v>
       </c>
       <c r="I24">
-        <v>0.6044429268837845</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>17.97005385632951</v>
+        <v>0.6039884984188006</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.96470631801162</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3253780745526598</v>
+        <v>0.3253676739847293</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02812675379137275</v>
+        <v>0.02812621096927082</v>
       </c>
       <c r="E25">
-        <v>0.6312747685522666</v>
+        <v>0.6312755399018144</v>
       </c>
       <c r="F25">
-        <v>3.234451945849827</v>
+        <v>3.227558189198959</v>
       </c>
       <c r="G25">
-        <v>2.389854731066421</v>
+        <v>0.8279831006856284</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.558298997497488</v>
       </c>
       <c r="I25">
-        <v>0.4554513461332022</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>14.23994348622364</v>
+        <v>0.4551708250847639</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.23695435827358</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2727021363932067</v>
+        <v>2.299807234042646</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01834498132842199</v>
+        <v>0.8550767323009154</v>
       </c>
       <c r="E2">
-        <v>0.5076445348890388</v>
+        <v>0.5290162027536667</v>
       </c>
       <c r="F2">
-        <v>2.498714106560783</v>
+        <v>6.922130443538208</v>
       </c>
       <c r="G2">
-        <v>0.6323938846806811</v>
+        <v>0.0007978699477446564</v>
       </c>
       <c r="H2">
-        <v>1.198340961532651</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3611068621642133</v>
+        <v>0.5075003187870948</v>
       </c>
       <c r="K2">
-        <v>11.69190815749226</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.382106142891814</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8693955842657886</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2377572557912089</v>
+        <v>2.026092555609864</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01318886084258253</v>
+        <v>0.726475006282584</v>
       </c>
       <c r="E3">
-        <v>0.4300666115273017</v>
+        <v>0.4507692308528135</v>
       </c>
       <c r="F3">
-        <v>2.071205919072511</v>
+        <v>6.215268050847868</v>
       </c>
       <c r="G3">
-        <v>0.5180277164900673</v>
+        <v>0.0008161643176659361</v>
       </c>
       <c r="H3">
-        <v>0.9903764421504917</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3031901484315469</v>
+        <v>0.4409483255162741</v>
       </c>
       <c r="K3">
-        <v>10.04127221318086</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.190976926570102</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7573483879099712</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2165879819486491</v>
+        <v>1.863946188099618</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01053633993930347</v>
+        <v>0.6507532439987926</v>
       </c>
       <c r="E4">
-        <v>0.384583901501955</v>
+        <v>0.4043997810971049</v>
       </c>
       <c r="F4">
-        <v>1.83244904414407</v>
+        <v>5.80425633519036</v>
       </c>
       <c r="G4">
-        <v>0.4542722846835545</v>
+        <v>0.0008275263215675732</v>
       </c>
       <c r="H4">
-        <v>0.8755683962259297</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2696566284437409</v>
+        <v>0.4013086029141419</v>
       </c>
       <c r="K4">
-        <v>9.052870545952146</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.078037143213123</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6910443951214233</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2080232805400755</v>
+        <v>1.799149318977499</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009559851994252355</v>
+        <v>0.6205673852262805</v>
       </c>
       <c r="E5">
-        <v>0.3664836405312926</v>
+        <v>0.385843743828751</v>
       </c>
       <c r="F5">
-        <v>1.740064818388731</v>
+        <v>5.641700705545475</v>
       </c>
       <c r="G5">
-        <v>0.4296244537342631</v>
+        <v>0.0008321986555193603</v>
       </c>
       <c r="H5">
-        <v>0.8314539196469468</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2564025299417452</v>
+        <v>0.3853964947834498</v>
       </c>
       <c r="K5">
-        <v>8.655042242822788</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.032943947449979</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6645573815880539</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.206604586009334</v>
+        <v>1.788461585854378</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009403387915334349</v>
+        <v>0.6155918294273306</v>
       </c>
       <c r="E6">
-        <v>0.3635016136646314</v>
+        <v>0.3827809322448061</v>
       </c>
       <c r="F6">
-        <v>1.724994033045036</v>
+        <v>5.6149840895566</v>
       </c>
       <c r="G6">
-        <v>0.4256047142649209</v>
+        <v>0.000832977300438123</v>
       </c>
       <c r="H6">
-        <v>0.8242754908189909</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2542240029705525</v>
+        <v>0.3827671550694163</v>
       </c>
       <c r="K6">
-        <v>8.589247374924213</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.025507757005272</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6601888951097337</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2164722371089454</v>
+        <v>1.863067389003447</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01052277674742186</v>
+        <v>0.650343601605698</v>
       </c>
       <c r="E7">
-        <v>0.3843381621243438</v>
+        <v>0.4041482493315769</v>
       </c>
       <c r="F7">
-        <v>1.831184481364062</v>
+        <v>5.802045101511482</v>
       </c>
       <c r="G7">
-        <v>0.4539348237038467</v>
+        <v>0.0008275891514596791</v>
       </c>
       <c r="H7">
-        <v>0.8749633105171739</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2694763309129797</v>
+        <v>0.4010931086409926</v>
       </c>
       <c r="K7">
-        <v>9.047486848573413</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.077425448712233</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6906851408233265</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2605869577438256</v>
+        <v>2.204066737870221</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01644401246809402</v>
+        <v>0.8099682805636235</v>
       </c>
       <c r="E8">
-        <v>0.4803780486037326</v>
+        <v>0.5016357039652561</v>
       </c>
       <c r="F8">
-        <v>2.345675447692471</v>
+        <v>6.673074622372752</v>
       </c>
       <c r="G8">
-        <v>0.5914223367507532</v>
+        <v>0.000804157398308321</v>
       </c>
       <c r="H8">
-        <v>1.123580018945347</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3406500969409265</v>
+        <v>0.4842555407685438</v>
       </c>
       <c r="K8">
-        <v>11.1166561030139</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.315170976709453</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.830182331255088</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3499280374985858</v>
+        <v>2.931206742613142</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03361751142204739</v>
+        <v>1.156745402482954</v>
       </c>
       <c r="E9">
-        <v>0.692126104709061</v>
+        <v>0.7106813664682505</v>
       </c>
       <c r="F9">
-        <v>3.605881257702151</v>
+        <v>8.610823301024453</v>
       </c>
       <c r="G9">
-        <v>0.9297970546284802</v>
+        <v>0.0007586918259285813</v>
       </c>
       <c r="H9">
-        <v>1.747253874573317</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5022287955846707</v>
+        <v>0.6608189705021488</v>
       </c>
       <c r="K9">
-        <v>15.45311682978115</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.826466145406329</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.128783053602533</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4182762842972636</v>
+        <v>3.52168866398506</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05267078409959502</v>
+        <v>1.446844693569147</v>
       </c>
       <c r="E10">
-        <v>0.874787242862908</v>
+        <v>0.8836406550396276</v>
       </c>
       <c r="F10">
-        <v>4.811756001412931</v>
+        <v>10.25969317299695</v>
       </c>
       <c r="G10">
-        <v>1.255521326288516</v>
+        <v>0.0007246028598928422</v>
       </c>
       <c r="H10">
-        <v>2.356869130846917</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6463730664175671</v>
+        <v>0.805802299718593</v>
       </c>
       <c r="K10">
-        <v>18.96593846685931</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.247969770268327</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.37296650977386</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4502714285517015</v>
+        <v>3.809085918893231</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06391539506746469</v>
+        <v>1.591324440135878</v>
       </c>
       <c r="E11">
-        <v>0.9686570935091225</v>
+        <v>0.9693393008723916</v>
       </c>
       <c r="F11">
-        <v>5.469404741400496</v>
+        <v>11.0861513690835</v>
       </c>
       <c r="G11">
-        <v>1.433865248342101</v>
+        <v>0.0007086289883442262</v>
       </c>
       <c r="H11">
-        <v>2.69316159292525</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7220913999865246</v>
+        <v>0.877432496562804</v>
       </c>
       <c r="K11">
-        <v>20.69270601018684</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.455674954571776</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.49250955532959</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4625555216749291</v>
+        <v>3.921395066686955</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06871422855646081</v>
+        <v>1.648424176470229</v>
       </c>
       <c r="E12">
-        <v>1.006452030371122</v>
+        <v>1.003145507566344</v>
       </c>
       <c r="F12">
-        <v>5.741007746390807</v>
+        <v>11.41338940094727</v>
       </c>
       <c r="G12">
-        <v>1.507653083757219</v>
+        <v>0.000702474753702914</v>
       </c>
       <c r="H12">
-        <v>2.832712269200584</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7528878294743677</v>
+        <v>0.9056657116551037</v>
       </c>
       <c r="K12">
-        <v>21.37309982582605</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.537349800246261</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.539363178140036</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4599016534839109</v>
+        <v>3.89703730687404</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06765287524207508</v>
+        <v>1.636008741843142</v>
       </c>
       <c r="E13">
-        <v>0.9981967041492652</v>
+        <v>0.9957976087144118</v>
       </c>
       <c r="F13">
-        <v>5.681357262466179</v>
+        <v>11.3422126996453</v>
       </c>
       <c r="G13">
-        <v>1.491441043990292</v>
+        <v>0.0007038056184078589</v>
       </c>
       <c r="H13">
-        <v>2.802032256053167</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7461460289828565</v>
+        <v>0.8995300067846586</v>
       </c>
       <c r="K13">
-        <v>21.22521185236798</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.519610831772496</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.529194615287125</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4512783998808487</v>
+        <v>3.818250550218011</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06429803707140813</v>
+        <v>1.595970050435454</v>
       </c>
       <c r="E14">
-        <v>0.9717160239000435</v>
+        <v>0.972090983436118</v>
       </c>
       <c r="F14">
-        <v>5.491244203450435</v>
+        <v>11.11276428565742</v>
       </c>
       <c r="G14">
-        <v>1.439795678977703</v>
+        <v>0.000708125053526487</v>
       </c>
       <c r="H14">
-        <v>2.704369091492879</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7245773141804079</v>
+        <v>0.8797309712198</v>
       </c>
       <c r="K14">
-        <v>20.74809026417944</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.462328735883233</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.496329883552249</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4460197209949968</v>
+        <v>3.770471874816394</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06232019247780585</v>
+        <v>1.571777372738552</v>
       </c>
       <c r="E15">
-        <v>0.9558159742670114</v>
+        <v>0.957758729170223</v>
       </c>
       <c r="F15">
-        <v>5.378001549729731</v>
+        <v>10.97419703718157</v>
       </c>
       <c r="G15">
-        <v>1.409050432948192</v>
+        <v>0.0007107557579926286</v>
       </c>
       <c r="H15">
-        <v>2.646282260180712</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7116684416501755</v>
+        <v>0.8677583925339292</v>
       </c>
       <c r="K15">
-        <v>20.45959894117573</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.427661262177423</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.476418858851801</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4162064505643883</v>
+        <v>3.503345332914307</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05200035263883684</v>
+        <v>1.437700159658618</v>
       </c>
       <c r="E16">
-        <v>0.8689212029204612</v>
+        <v>0.8782080161309409</v>
       </c>
       <c r="F16">
-        <v>4.771482004399161</v>
+        <v>10.20747599176099</v>
       </c>
       <c r="G16">
-        <v>1.244615055182621</v>
+        <v>0.000725634426696283</v>
       </c>
       <c r="H16">
-        <v>2.336354173535284</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6416779746470596</v>
+        <v>0.8012579359733962</v>
       </c>
       <c r="K16">
-        <v>18.8562776989059</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.234773436365401</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.365353114432438</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3981713191274139</v>
+        <v>3.344761164992235</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04642516754806891</v>
+        <v>1.359011569509022</v>
       </c>
       <c r="E17">
-        <v>0.8187681522482819</v>
+        <v>0.8314131441441646</v>
       </c>
       <c r="F17">
-        <v>4.431227346167958</v>
+        <v>9.758697833169578</v>
       </c>
       <c r="G17">
-        <v>1.152547292450279</v>
+        <v>0.0007346191535766375</v>
       </c>
       <c r="H17">
-        <v>2.163429925526856</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6017134858125388</v>
+        <v>0.7620927143893965</v>
       </c>
       <c r="K17">
-        <v>17.91023969680958</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.120974268366922</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.299611103968459</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3878800885172353</v>
+        <v>3.255257612667947</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04344735841209335</v>
+        <v>1.314885035943632</v>
       </c>
       <c r="E18">
-        <v>0.7908797217399126</v>
+        <v>0.8051323896970359</v>
       </c>
       <c r="F18">
-        <v>4.24523882842621</v>
+        <v>9.507513818678206</v>
       </c>
       <c r="G18">
-        <v>1.102278681271898</v>
+        <v>0.0007397458889245792</v>
       </c>
       <c r="H18">
-        <v>2.069221048526799</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5796285952588391</v>
+        <v>0.7400779294839168</v>
       </c>
       <c r="K18">
-        <v>17.37758989283907</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.056967430685063</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.262566871862234</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3844088094660236</v>
+        <v>3.225227135319756</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04247457740387262</v>
+        <v>1.300124355939261</v>
       </c>
       <c r="E19">
-        <v>0.7815858529011592</v>
+        <v>0.7963345147183389</v>
       </c>
       <c r="F19">
-        <v>4.183778250566235</v>
+        <v>9.423576036097984</v>
       </c>
       <c r="G19">
-        <v>1.085676316309318</v>
+        <v>0.0007414756282845884</v>
       </c>
       <c r="H19">
-        <v>2.038140780913395</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5722908074932036</v>
+        <v>0.7327047628498065</v>
       </c>
       <c r="K19">
-        <v>17.19903140470001</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.035526119617487</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.250147053986936</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4000824604585063</v>
+        <v>3.361460916020349</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04699400748526372</v>
+        <v>1.367267208877337</v>
       </c>
       <c r="E20">
-        <v>0.8240039006090285</v>
+        <v>0.8363267626162951</v>
       </c>
       <c r="F20">
-        <v>4.466403396661832</v>
+        <v>9.805732222226709</v>
       </c>
       <c r="G20">
-        <v>1.162059197760797</v>
+        <v>0.0007336671978150253</v>
       </c>
       <c r="H20">
-        <v>2.181273304710331</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6058707123809128</v>
+        <v>0.7662071411249229</v>
       </c>
       <c r="K20">
-        <v>18.00971240206121</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.132934097458076</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.306527598586669</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4538063074624432</v>
+        <v>3.841290214721027</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06526691624520353</v>
+        <v>1.60765978458096</v>
       </c>
       <c r="E21">
-        <v>0.9794254751986102</v>
+        <v>0.9790140529556766</v>
       </c>
       <c r="F21">
-        <v>5.546398493137673</v>
+        <v>11.17973933000161</v>
       </c>
       <c r="G21">
-        <v>1.454774840773268</v>
+        <v>0.0007068595604846889</v>
       </c>
       <c r="H21">
-        <v>2.732683780974867</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7308477427220978</v>
+        <v>0.8855134580827979</v>
       </c>
       <c r="K21">
-        <v>20.88742825229542</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.479064771752292</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.505936442147743</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4899302756795834</v>
+        <v>4.175739673448561</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08052756727622601</v>
+        <v>1.779145291997906</v>
       </c>
       <c r="E22">
-        <v>1.094787361693449</v>
+        <v>1.080428168203511</v>
       </c>
       <c r="F22">
-        <v>6.390418694381651</v>
+        <v>12.16343773655507</v>
       </c>
       <c r="G22">
-        <v>1.684381011167062</v>
+        <v>0.0006886965004578261</v>
       </c>
       <c r="H22">
-        <v>3.167802090843438</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8255548741633021</v>
+        <v>0.970176557823649</v>
       </c>
       <c r="K22">
-        <v>22.930159653494</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.723447753000642</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.645780522771943</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4705401290157027</v>
+        <v>3.994996262557493</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07199296107364539</v>
+        <v>1.686047550112733</v>
       </c>
       <c r="E23">
-        <v>1.031603086480047</v>
+        <v>1.025403590949026</v>
       </c>
       <c r="F23">
-        <v>5.923850680620603</v>
+        <v>11.62915354048158</v>
       </c>
       <c r="G23">
-        <v>1.557369195504108</v>
+        <v>0.0006984658484441904</v>
       </c>
       <c r="H23">
-        <v>2.926860635040555</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7734796950232692</v>
+        <v>0.9242492292004982</v>
       </c>
       <c r="K23">
-        <v>21.82116048805665</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.591037707283164</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.570112889541406</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3992181950071796</v>
+        <v>3.353905815993471</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0467361378293667</v>
+        <v>1.363531410112813</v>
       </c>
       <c r="E24">
-        <v>0.8216339211014656</v>
+        <v>0.8341034016579272</v>
       </c>
       <c r="F24">
-        <v>4.450470772086248</v>
+        <v>9.78444694941706</v>
       </c>
       <c r="G24">
-        <v>1.157750700167455</v>
+        <v>0.0007340976949817823</v>
       </c>
       <c r="H24">
-        <v>2.173190340488091</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6039884984188006</v>
+        <v>0.7643454661123315</v>
       </c>
       <c r="K24">
-        <v>17.96470631801162</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.127522693446053</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.303398335791869</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3253676739847293</v>
+        <v>2.726404319768676</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02812621096927082</v>
+        <v>1.058024869897821</v>
       </c>
       <c r="E25">
-        <v>0.6312755399018144</v>
+        <v>0.6514745937628419</v>
       </c>
       <c r="F25">
-        <v>3.227558189198959</v>
+        <v>8.054484735759758</v>
       </c>
       <c r="G25">
-        <v>0.8279831006856284</v>
+        <v>0.0007710262979109743</v>
       </c>
       <c r="H25">
-        <v>1.558298997497488</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4551708250847639</v>
+        <v>0.6109981561342011</v>
       </c>
       <c r="K25">
-        <v>14.23695435827358</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.681704915698276</v>
       </c>
       <c r="M25">
+        <v>1.04447903151916</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.299807234042646</v>
+        <v>0.2723000086800909</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8550767323009154</v>
+        <v>0.05852904281604054</v>
       </c>
       <c r="E2">
-        <v>0.5290162027536667</v>
+        <v>0.2964532325549101</v>
       </c>
       <c r="F2">
-        <v>6.922130443538208</v>
+        <v>0.3729927349945328</v>
       </c>
       <c r="G2">
-        <v>0.0007978699477446564</v>
+        <v>0.2665014398977092</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2143782370622844</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5075003187870948</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.503627587704557</v>
       </c>
       <c r="L2">
-        <v>1.382106142891814</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8693955842657886</v>
+        <v>0.7126632735900884</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7042623610248171</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9644886452745141</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.026092555609864</v>
+        <v>0.2381957648858872</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.726475006282584</v>
+        <v>0.05149408545997147</v>
       </c>
       <c r="E3">
-        <v>0.4507692308528135</v>
+        <v>0.2597532798791704</v>
       </c>
       <c r="F3">
-        <v>6.215268050847868</v>
+        <v>0.3426378463495183</v>
       </c>
       <c r="G3">
-        <v>0.0008161643176659361</v>
+        <v>0.2447720096454518</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2091903097640113</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4409483255162741</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.328007089268453</v>
       </c>
       <c r="L3">
-        <v>1.190976926570102</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7573483879099712</v>
+        <v>0.6175894015928449</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7332484465849944</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9072375585741952</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.863946188099618</v>
+        <v>0.217388569734382</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6507532439987926</v>
+        <v>0.04716396245030552</v>
       </c>
       <c r="E4">
-        <v>0.4043997810971049</v>
+        <v>0.2377318491561198</v>
       </c>
       <c r="F4">
-        <v>5.80425633519036</v>
+        <v>0.3246780236218711</v>
       </c>
       <c r="G4">
-        <v>0.0008275263215675732</v>
+        <v>0.2320285915094544</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2063964039805199</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4013086029141419</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.219984891213102</v>
       </c>
       <c r="L4">
-        <v>1.078037143213123</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6910443951214233</v>
+        <v>0.5595299781120957</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7520214109637102</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8741650813969386</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.799149318977499</v>
+        <v>0.2089398955671129</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6205673852262805</v>
+        <v>0.04539645711739126</v>
       </c>
       <c r="E5">
-        <v>0.385843743828751</v>
+        <v>0.2288744598927934</v>
       </c>
       <c r="F5">
-        <v>5.641700705545475</v>
+        <v>0.3175194090079643</v>
       </c>
       <c r="G5">
-        <v>0.0008321986555193603</v>
+        <v>0.2269763364105017</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2053520309150727</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3853964947834498</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.175907529001364</v>
       </c>
       <c r="L5">
-        <v>1.032943947449979</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6645573815880539</v>
+        <v>0.535935841567742</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7599108986133913</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8611812161741454</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.788461585854378</v>
+        <v>0.2075387520014402</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6155918294273306</v>
+        <v>0.04510277865541923</v>
       </c>
       <c r="E6">
-        <v>0.3827809322448061</v>
+        <v>0.2274103864140002</v>
       </c>
       <c r="F6">
-        <v>5.6149840895566</v>
+        <v>0.3163401051727845</v>
       </c>
       <c r="G6">
-        <v>0.000832977300438123</v>
+        <v>0.2261456411860934</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2051841796263076</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3827671550694163</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.168584780545331</v>
       </c>
       <c r="L6">
-        <v>1.025507757005272</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6601888951097337</v>
+        <v>0.5320216177837054</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7612352303242567</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8590542189964054</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.863067389003447</v>
+        <v>0.2172745086404575</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.650343601605698</v>
+        <v>0.04714013752909807</v>
       </c>
       <c r="E7">
-        <v>0.4041482493315769</v>
+        <v>0.2376119393485681</v>
       </c>
       <c r="F7">
-        <v>5.802045101511482</v>
+        <v>0.3245808449389713</v>
       </c>
       <c r="G7">
-        <v>0.0008275891514596791</v>
+        <v>0.2319598974856305</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2063819434342307</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4010931086409926</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.219390693222493</v>
       </c>
       <c r="L7">
-        <v>1.077425448712233</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6906851408233265</v>
+        <v>0.5592115318638378</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7521268498455385</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8739880166233007</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.204066737870221</v>
+        <v>0.2605114143988061</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8099682805636235</v>
+        <v>0.05610542601741031</v>
       </c>
       <c r="E8">
-        <v>0.5016357039652561</v>
+        <v>0.2836850720916004</v>
       </c>
       <c r="F8">
-        <v>6.673074622372752</v>
+        <v>0.3623792046670857</v>
       </c>
       <c r="G8">
-        <v>0.000804157398308321</v>
+        <v>0.2588789104455316</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.212505542388115</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4842555407685438</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.443107195904133</v>
       </c>
       <c r="L8">
-        <v>1.315170976709453</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.830182331255088</v>
+        <v>0.6798074632003832</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.7140506821950865</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9442985349908923</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.931206742613142</v>
+        <v>0.3464994708796496</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.156745402482954</v>
+        <v>0.07361573548016054</v>
       </c>
       <c r="E9">
-        <v>0.7106813664682505</v>
+        <v>0.3786959932566489</v>
       </c>
       <c r="F9">
-        <v>8.610823301024453</v>
+        <v>0.4423784076201756</v>
       </c>
       <c r="G9">
-        <v>0.0007586918259285813</v>
+        <v>0.3168795875360217</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2278243552249961</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6608189705021488</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.880785382004348</v>
       </c>
       <c r="L9">
-        <v>1.826466145406329</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.128783053602533</v>
+        <v>0.9194867862821567</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6474005004849346</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.100090903641274</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.52168866398506</v>
+        <v>0.4106244292537866</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.446844693569147</v>
+        <v>0.08645882739808286</v>
       </c>
       <c r="E10">
-        <v>0.8836406550396276</v>
+        <v>0.4522312419441903</v>
       </c>
       <c r="F10">
-        <v>10.25969317299695</v>
+        <v>0.5054676030103806</v>
       </c>
       <c r="G10">
-        <v>0.0007246028598928422</v>
+        <v>0.3633539416606055</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2413981061008883</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.805802299718593</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.202469893417828</v>
       </c>
       <c r="L10">
-        <v>2.247969770268327</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.37296650977386</v>
+        <v>1.098550167949348</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6037229125471768</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.227552274267026</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.809085918893231</v>
+        <v>0.4400536591454056</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.591324440135878</v>
+        <v>0.09230181283864169</v>
       </c>
       <c r="E11">
-        <v>0.9693393008723916</v>
+        <v>0.486708328543429</v>
       </c>
       <c r="F11">
-        <v>11.0861513690835</v>
+        <v>0.5352780765172724</v>
       </c>
       <c r="G11">
-        <v>0.0007086289883442262</v>
+        <v>0.3854966699091591</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2481480423318771</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.877432496562804</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.349021252140602</v>
       </c>
       <c r="L11">
-        <v>2.455674954571776</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.49250955532959</v>
+        <v>1.180902677317789</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5850962486425715</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.28885356284195</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.921395066686955</v>
+        <v>0.4512392537736787</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.648424176470229</v>
+        <v>0.09451490324478584</v>
       </c>
       <c r="E12">
-        <v>1.003145507566344</v>
+        <v>0.499930646020097</v>
       </c>
       <c r="F12">
-        <v>11.41338940094727</v>
+        <v>0.5467415831731586</v>
       </c>
       <c r="G12">
-        <v>0.000702474753702914</v>
+        <v>0.3940399351738648</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2507931375368315</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9056657116551037</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.404563221467697</v>
       </c>
       <c r="L12">
-        <v>2.537349800246261</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.539363178140036</v>
+        <v>1.212238201336064</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5782299971451081</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.312587831007193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.89703730687404</v>
+        <v>0.4488283255542171</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.636008741843142</v>
+        <v>0.09403824682664208</v>
       </c>
       <c r="E13">
-        <v>0.9957976087144118</v>
+        <v>0.497075253292202</v>
       </c>
       <c r="F13">
-        <v>11.3422126996453</v>
+        <v>0.5442646793112687</v>
       </c>
       <c r="G13">
-        <v>0.0007038056184078589</v>
+        <v>0.3921927116481498</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2502194033477849</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8995300067846586</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.392598957235833</v>
       </c>
       <c r="L13">
-        <v>2.519610831772496</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.529194615287125</v>
+        <v>1.205482483305879</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.579700296272172</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.307452342575459</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.818250550218011</v>
+        <v>0.4409730503419667</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.595970050435454</v>
+        <v>0.0924838731896358</v>
       </c>
       <c r="E14">
-        <v>0.972090983436118</v>
+        <v>0.4877926828334083</v>
       </c>
       <c r="F14">
-        <v>11.11276428565742</v>
+        <v>0.5362175897164576</v>
       </c>
       <c r="G14">
-        <v>0.000708125053526487</v>
+        <v>0.3861962715899381</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2483638335739329</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8797309712198</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.353589707165668</v>
       </c>
       <c r="L14">
-        <v>2.462328735883233</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.496329883552249</v>
+        <v>1.183477525288168</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5845275538965353</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.290795497329071</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.770471874816394</v>
+        <v>0.4361669861117008</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.571777372738552</v>
+        <v>0.09153184885649779</v>
       </c>
       <c r="E15">
-        <v>0.957758729170223</v>
+        <v>0.4821291291360978</v>
       </c>
       <c r="F15">
-        <v>10.97419703718157</v>
+        <v>0.531311763598076</v>
       </c>
       <c r="G15">
-        <v>0.0007107557579926286</v>
+        <v>0.3825443348020485</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2472390345974702</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8677583925339292</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.329701896520845</v>
       </c>
       <c r="L15">
-        <v>2.427661262177423</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.476418858851801</v>
+        <v>1.170019112256661</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5875090396034892</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.28066186730689</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.503345332914307</v>
+        <v>0.4087067159306201</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.437700159658618</v>
+        <v>0.08607701960465874</v>
       </c>
       <c r="E16">
-        <v>0.8782080161309409</v>
+        <v>0.4500003202274172</v>
       </c>
       <c r="F16">
-        <v>10.20747599176099</v>
+        <v>0.5035430474481046</v>
       </c>
       <c r="G16">
-        <v>0.000725634426696283</v>
+        <v>0.3619282123632104</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2409690873103187</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8012579359733962</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.192898021801227</v>
       </c>
       <c r="L16">
-        <v>2.234773436365401</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.365353114432438</v>
+        <v>1.093188071071246</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.6049659336814202</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.223616527921138</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.344761164992235</v>
+        <v>0.3919298549132293</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.359011569509022</v>
+        <v>0.08273108351624359</v>
       </c>
       <c r="E17">
-        <v>0.8314131441441646</v>
+        <v>0.4305661400835135</v>
       </c>
       <c r="F17">
-        <v>9.758697833169578</v>
+        <v>0.4868028543966787</v>
       </c>
       <c r="G17">
-        <v>0.0007346191535766375</v>
+        <v>0.3495472282685625</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2372743640137998</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7620927143893965</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.109038870070378</v>
       </c>
       <c r="L17">
-        <v>2.120974268366922</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.299611103968459</v>
+        <v>1.04629898070111</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.6159993561905139</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.189501110819918</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.255257612667947</v>
+        <v>0.3823043098204977</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.314885035943632</v>
+        <v>0.08080662097617619</v>
       </c>
       <c r="E18">
-        <v>0.8051323896970359</v>
+        <v>0.4194834110962233</v>
       </c>
       <c r="F18">
-        <v>9.507513818678206</v>
+        <v>0.4772779329376036</v>
       </c>
       <c r="G18">
-        <v>0.0007397458889245792</v>
+        <v>0.3425193498706562</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2352029907295901</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7400779294839168</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.060824605051721</v>
       </c>
       <c r="L18">
-        <v>2.056967430685063</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.262566871862234</v>
+        <v>1.019412531099633</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.622461893459036</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.170188395482</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.225227135319756</v>
+        <v>0.3790492736009696</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.300124355939261</v>
+        <v>0.08015502485435633</v>
       </c>
       <c r="E19">
-        <v>0.7963345147183389</v>
+        <v>0.415746798425765</v>
       </c>
       <c r="F19">
-        <v>9.423576036097984</v>
+        <v>0.4740703042360508</v>
       </c>
       <c r="G19">
-        <v>0.0007414756282845884</v>
+        <v>0.3401554412155434</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2345107021551911</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7327047628498065</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.044502955994773</v>
       </c>
       <c r="L19">
-        <v>2.035526119617487</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.250147053986936</v>
+        <v>1.010322850320698</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6246697366846377</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.163701329707862</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.361460916020349</v>
+        <v>0.3937132603276723</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.367267208877337</v>
+        <v>0.08308725810861262</v>
       </c>
       <c r="E20">
-        <v>0.8363267626162951</v>
+        <v>0.432624945055494</v>
       </c>
       <c r="F20">
-        <v>9.805732222226709</v>
+        <v>0.4885740480485694</v>
       </c>
       <c r="G20">
-        <v>0.0007336671978150253</v>
+        <v>0.3508554446456742</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2376620678631696</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7662071411249229</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.117963716363334</v>
       </c>
       <c r="L20">
-        <v>2.132934097458076</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.306527598586669</v>
+        <v>1.051281671752207</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6148127215147312</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.193100409329332</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.841290214721027</v>
+        <v>0.4432791771382938</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.60765978458096</v>
+        <v>0.09294041416443122</v>
       </c>
       <c r="E21">
-        <v>0.9790140529556766</v>
+        <v>0.4905145175442343</v>
       </c>
       <c r="F21">
-        <v>11.17973933000161</v>
+        <v>0.5385763414656779</v>
       </c>
       <c r="G21">
-        <v>0.0007068595604846889</v>
+        <v>0.3879531564404886</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2489063902256703</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8855134580827979</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.365046289959793</v>
       </c>
       <c r="L21">
-        <v>2.479064771752292</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.505936442147743</v>
+        <v>1.189936651877936</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5831045179867829</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.295673519799266</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.175739673448561</v>
+        <v>0.4759167179753945</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.779145291997906</v>
+        <v>0.09938301110654635</v>
       </c>
       <c r="E22">
-        <v>1.080428168203511</v>
+        <v>0.5293297254431977</v>
       </c>
       <c r="F22">
-        <v>12.16343773655507</v>
+        <v>0.5722831314086463</v>
       </c>
       <c r="G22">
-        <v>0.0006886965004578261</v>
+        <v>0.4131286744164413</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2567774608626223</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.970176557823649</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.52680598148936</v>
       </c>
       <c r="L22">
-        <v>2.723447753000642</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.645780522771943</v>
+        <v>1.281443718853225</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5634772512911823</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.365769027610355</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.994996262557493</v>
+        <v>0.4584737252254882</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.686047550112733</v>
+        <v>0.09594406611267914</v>
       </c>
       <c r="E23">
-        <v>1.025403590949026</v>
+        <v>0.5085168324499918</v>
       </c>
       <c r="F23">
-        <v>11.62915354048158</v>
+        <v>0.5541938904336661</v>
       </c>
       <c r="G23">
-        <v>0.0006984658484441904</v>
+        <v>0.3996019437829403</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2525265283987039</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9242492292004982</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.440441109670701</v>
       </c>
       <c r="L23">
-        <v>2.591037707283164</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.570112889541406</v>
+        <v>1.232515827029417</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5738494418862672</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.328062725138409</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.353905815993471</v>
+        <v>0.3929069217078762</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.363531410112813</v>
+        <v>0.08292623421906598</v>
       </c>
       <c r="E24">
-        <v>0.8341034016579272</v>
+        <v>0.4316938796776597</v>
       </c>
       <c r="F24">
-        <v>9.78444694941706</v>
+        <v>0.4877729834289539</v>
       </c>
       <c r="G24">
-        <v>0.0007340976949817823</v>
+        <v>0.3502637204060619</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2374866230525754</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7643454661123315</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.113928802339984</v>
       </c>
       <c r="L24">
-        <v>2.127522693446053</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.303398335791869</v>
+        <v>1.049028778486644</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6153488281784263</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.191472233146015</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.726404319768676</v>
+        <v>0.3230870896204152</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.058024869897821</v>
+        <v>0.06888416115883444</v>
       </c>
       <c r="E25">
-        <v>0.6514745937628419</v>
+        <v>0.3524059973440572</v>
       </c>
       <c r="F25">
-        <v>8.054484735759758</v>
+        <v>0.4200345029673471</v>
       </c>
       <c r="G25">
-        <v>0.0007710262979109743</v>
+        <v>0.3005627769284587</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2232958633428979</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6109981561342011</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.762417915945747</v>
       </c>
       <c r="L25">
-        <v>1.681704915698276</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.04447903151916</v>
+        <v>0.8542039869094538</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6645326902072988</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.055820106090863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2723000086800909</v>
+        <v>0.1424505885193952</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05852904281604054</v>
+        <v>0.02013275399991699</v>
       </c>
       <c r="E2">
-        <v>0.2964532325549101</v>
+        <v>0.1706397611198867</v>
       </c>
       <c r="F2">
-        <v>0.3729927349945328</v>
+        <v>0.4551076624629928</v>
       </c>
       <c r="G2">
-        <v>0.2665014398977092</v>
+        <v>0.3005287660485791</v>
       </c>
       <c r="H2">
-        <v>0.2143782370622844</v>
+        <v>0.4641317007753187</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.503627587704557</v>
+        <v>0.4796567021739122</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7126632735900884</v>
+        <v>0.2371909127198393</v>
       </c>
       <c r="N2">
-        <v>0.7042623610248171</v>
+        <v>1.278496167539124</v>
       </c>
       <c r="O2">
-        <v>0.9644886452745141</v>
+        <v>1.456480937381144</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2381957648858872</v>
+        <v>0.1329280882201687</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05149408545997147</v>
+        <v>0.01783193070128419</v>
       </c>
       <c r="E3">
-        <v>0.2597532798791704</v>
+        <v>0.1621401311927571</v>
       </c>
       <c r="F3">
-        <v>0.3426378463495183</v>
+        <v>0.4509585701085257</v>
       </c>
       <c r="G3">
-        <v>0.2447720096454518</v>
+        <v>0.2977446921923459</v>
       </c>
       <c r="H3">
-        <v>0.2091903097640113</v>
+        <v>0.4661137010476608</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.328007089268453</v>
+        <v>0.4231847918051983</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6175894015928449</v>
+        <v>0.209650902747839</v>
       </c>
       <c r="N3">
-        <v>0.7332484465849944</v>
+        <v>1.291360057554538</v>
       </c>
       <c r="O3">
-        <v>0.9072375585741952</v>
+        <v>1.454486899445428</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.217388569734382</v>
+        <v>0.1271497787846414</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04716396245030552</v>
+        <v>0.01641102853855614</v>
       </c>
       <c r="E4">
-        <v>0.2377318491561198</v>
+        <v>0.157059877418952</v>
       </c>
       <c r="F4">
-        <v>0.3246780236218711</v>
+        <v>0.4487240944589672</v>
       </c>
       <c r="G4">
-        <v>0.2320285915094544</v>
+        <v>0.2962779892827996</v>
       </c>
       <c r="H4">
-        <v>0.2063964039805199</v>
+        <v>0.4675549582580203</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.219984891213102</v>
+        <v>0.3883267550192784</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5595299781120957</v>
+        <v>0.1927685460267412</v>
       </c>
       <c r="N4">
-        <v>0.7520214109637102</v>
+        <v>1.299740925498085</v>
       </c>
       <c r="O4">
-        <v>0.8741650813969386</v>
+        <v>1.454238123305601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2089398955671129</v>
+        <v>0.1248124873505674</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04539645711739126</v>
+        <v>0.01582997461528635</v>
       </c>
       <c r="E5">
-        <v>0.2288744598927934</v>
+        <v>0.155024263641053</v>
       </c>
       <c r="F5">
-        <v>0.3175194090079643</v>
+        <v>0.4478922514645802</v>
       </c>
       <c r="G5">
-        <v>0.2269763364105017</v>
+        <v>0.2957412438193856</v>
       </c>
       <c r="H5">
-        <v>0.2053520309150727</v>
+        <v>0.4681987170948716</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.175907529001364</v>
+        <v>0.3740764014192735</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.535935841567742</v>
+        <v>0.1858957995432675</v>
       </c>
       <c r="N5">
-        <v>0.7599108986133913</v>
+        <v>1.30327755394697</v>
       </c>
       <c r="O5">
-        <v>0.8611812161741454</v>
+        <v>1.454381934813512</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2075387520014402</v>
+        <v>0.1244254391136081</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04510277865541923</v>
+        <v>0.01573336976330353</v>
       </c>
       <c r="E6">
-        <v>0.2274103864140002</v>
+        <v>0.1546883370175323</v>
       </c>
       <c r="F6">
-        <v>0.3163401051727845</v>
+        <v>0.4477588792038176</v>
       </c>
       <c r="G6">
-        <v>0.2261456411860934</v>
+        <v>0.2956557961521753</v>
       </c>
       <c r="H6">
-        <v>0.2051841796263076</v>
+        <v>0.4683090222443624</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.168584780545331</v>
+        <v>0.3717074231467734</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5320216177837054</v>
+        <v>0.1847550074545197</v>
       </c>
       <c r="N6">
-        <v>0.7612352303242567</v>
+        <v>1.30387213976023</v>
       </c>
       <c r="O6">
-        <v>0.8590542189964054</v>
+        <v>1.454420619802022</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2172745086404575</v>
+        <v>0.1271181864972135</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04714013752909807</v>
+        <v>0.01640320039524568</v>
       </c>
       <c r="E7">
-        <v>0.2376119393485681</v>
+        <v>0.1570322844776371</v>
       </c>
       <c r="F7">
-        <v>0.3245808449389713</v>
+        <v>0.4487125571882444</v>
       </c>
       <c r="G7">
-        <v>0.2319598974856305</v>
+        <v>0.2962705038882731</v>
       </c>
       <c r="H7">
-        <v>0.2063819434342307</v>
+        <v>0.4675634116700706</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.219390693222493</v>
+        <v>0.3881347525310161</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5592115318638378</v>
+        <v>0.192675829512126</v>
       </c>
       <c r="N7">
-        <v>0.7521268498455385</v>
+        <v>1.299788130261298</v>
       </c>
       <c r="O7">
-        <v>0.8739880166233007</v>
+        <v>1.454239070202277</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2605114143988061</v>
+        <v>0.1391531092357638</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05610542601741031</v>
+        <v>0.0193411491858555</v>
       </c>
       <c r="E8">
-        <v>0.2836850720916004</v>
+        <v>0.1676802031045668</v>
       </c>
       <c r="F8">
-        <v>0.3623792046670857</v>
+        <v>0.4536120701563604</v>
       </c>
       <c r="G8">
-        <v>0.2588789104455316</v>
+        <v>0.2995183838928668</v>
       </c>
       <c r="H8">
-        <v>0.212505542388115</v>
+        <v>0.46476855967191</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.443107195904133</v>
+        <v>0.4602238885101428</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6798074632003832</v>
+        <v>0.2276894871486235</v>
       </c>
       <c r="N8">
-        <v>0.7140506821950865</v>
+        <v>1.282831551654471</v>
       </c>
       <c r="O8">
-        <v>0.9442985349908923</v>
+        <v>1.455590832738139</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3464994708796496</v>
+        <v>0.1632907710933011</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07361573548016054</v>
+        <v>0.02503625265241993</v>
       </c>
       <c r="E9">
-        <v>0.3786959932566489</v>
+        <v>0.1896707669518207</v>
       </c>
       <c r="F9">
-        <v>0.4423784076201756</v>
+        <v>0.4657055809154329</v>
       </c>
       <c r="G9">
-        <v>0.3168795875360217</v>
+        <v>0.3078182432949035</v>
       </c>
       <c r="H9">
-        <v>0.2278243552249961</v>
+        <v>0.461066466643274</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.880785382004348</v>
+        <v>0.6000985992871222</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9194867862821567</v>
+        <v>0.2965678356974095</v>
       </c>
       <c r="N9">
-        <v>0.6474005004849346</v>
+        <v>1.253404516404839</v>
       </c>
       <c r="O9">
-        <v>1.100090903641274</v>
+        <v>1.465990501885727</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4106244292537866</v>
+        <v>0.1813451557723766</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08645882739808286</v>
+        <v>0.02917878712145239</v>
       </c>
       <c r="E10">
-        <v>0.4522312419441903</v>
+        <v>0.2065204593568595</v>
       </c>
       <c r="F10">
-        <v>0.5054676030103806</v>
+        <v>0.4761096913153864</v>
       </c>
       <c r="G10">
-        <v>0.3633539416606055</v>
+        <v>0.3151010831835634</v>
       </c>
       <c r="H10">
-        <v>0.2413981061008883</v>
+        <v>0.4594297606819424</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.202469893417828</v>
+        <v>0.7019221860259108</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.098550167949348</v>
+        <v>0.3473098107271895</v>
       </c>
       <c r="N10">
-        <v>0.6037229125471768</v>
+        <v>1.234112015567177</v>
       </c>
       <c r="O10">
-        <v>1.227552274267026</v>
+        <v>1.478369916169726</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4400536591454056</v>
+        <v>0.1896267521109962</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09230181283864169</v>
+        <v>0.03105403249586658</v>
       </c>
       <c r="E11">
-        <v>0.486708328543429</v>
+        <v>0.21433999679072</v>
       </c>
       <c r="F11">
-        <v>0.5352780765172724</v>
+        <v>0.4811735288528922</v>
       </c>
       <c r="G11">
-        <v>0.3854966699091591</v>
+        <v>0.318673287859113</v>
       </c>
       <c r="H11">
-        <v>0.2481480423318771</v>
+        <v>0.4589202034386233</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.349021252140602</v>
+        <v>0.7480333347168084</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.180902677317789</v>
+        <v>0.3704247621222478</v>
       </c>
       <c r="N11">
-        <v>0.5850962486425715</v>
+        <v>1.225839920796176</v>
       </c>
       <c r="O11">
-        <v>1.28885356284195</v>
+        <v>1.485034019371227</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4512392537736787</v>
+        <v>0.1927724759862457</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09451490324478584</v>
+        <v>0.03176278364555429</v>
       </c>
       <c r="E12">
-        <v>0.499930646020097</v>
+        <v>0.2173235275171734</v>
       </c>
       <c r="F12">
-        <v>0.5467415831731586</v>
+        <v>0.4831386971345566</v>
       </c>
       <c r="G12">
-        <v>0.3940399351738648</v>
+        <v>0.3200633771113672</v>
       </c>
       <c r="H12">
-        <v>0.2507931375368315</v>
+        <v>0.4587610164365685</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.404563221467697</v>
+        <v>0.7654636287890071</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.212238201336064</v>
+        <v>0.3791824093956677</v>
       </c>
       <c r="N12">
-        <v>0.5782299971451081</v>
+        <v>1.222779948840888</v>
       </c>
       <c r="O12">
-        <v>1.312587831007193</v>
+        <v>1.487706238956235</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4488283255542171</v>
+        <v>0.1920945614355247</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09403824682664208</v>
+        <v>0.03161020266514214</v>
       </c>
       <c r="E13">
-        <v>0.497075253292202</v>
+        <v>0.2166799691875525</v>
       </c>
       <c r="F13">
-        <v>0.5442646793112687</v>
+        <v>0.4827133456558741</v>
       </c>
       <c r="G13">
-        <v>0.3921927116481498</v>
+        <v>0.3197623327764916</v>
       </c>
       <c r="H13">
-        <v>0.2502194033477849</v>
+        <v>0.4587937985341597</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.392598957235833</v>
+        <v>0.7617110969115117</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.205482483305879</v>
+        <v>0.3772960942284556</v>
       </c>
       <c r="N13">
-        <v>0.579700296272172</v>
+        <v>1.22343574458381</v>
       </c>
       <c r="O13">
-        <v>1.307452342575459</v>
+        <v>1.487124113828145</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4409730503419667</v>
+        <v>0.1898853601737756</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0924838731896358</v>
+        <v>0.0311123694294011</v>
       </c>
       <c r="E14">
-        <v>0.4877926828334083</v>
+        <v>0.2145850026335694</v>
       </c>
       <c r="F14">
-        <v>0.5362175897164576</v>
+        <v>0.4813342503334326</v>
       </c>
       <c r="G14">
-        <v>0.3861962715899381</v>
+        <v>0.3187869017639287</v>
       </c>
       <c r="H14">
-        <v>0.2483638335739329</v>
+        <v>0.4589064303148973</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.353589707165668</v>
+        <v>0.7494679622027149</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.183477525288168</v>
+        <v>0.3711451691410872</v>
       </c>
       <c r="N14">
-        <v>0.5845275538965353</v>
+        <v>1.225586722267813</v>
       </c>
       <c r="O14">
-        <v>1.290795497329071</v>
+        <v>1.485250883955104</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4361669861117008</v>
+        <v>0.1885334131827534</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09153184885649779</v>
+        <v>0.0308072534731636</v>
       </c>
       <c r="E15">
-        <v>0.4821291291360978</v>
+        <v>0.2133047042295999</v>
       </c>
       <c r="F15">
-        <v>0.531311763598076</v>
+        <v>0.4804957142626094</v>
       </c>
       <c r="G15">
-        <v>0.3825443348020485</v>
+        <v>0.3181942920915048</v>
       </c>
       <c r="H15">
-        <v>0.2472390345974702</v>
+        <v>0.4589798179614917</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.329701896520845</v>
+        <v>0.7419646235756261</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.170019112256661</v>
+        <v>0.3673781348780025</v>
       </c>
       <c r="N15">
-        <v>0.5875090396034892</v>
+        <v>1.226913698492929</v>
       </c>
       <c r="O15">
-        <v>1.28066186730689</v>
+        <v>1.484122842733001</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4087067159306201</v>
+        <v>0.1808052969037988</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08607701960465874</v>
+        <v>0.02905604671610007</v>
       </c>
       <c r="E16">
-        <v>0.4500003202274172</v>
+        <v>0.2060125625673805</v>
       </c>
       <c r="F16">
-        <v>0.5035430474481046</v>
+        <v>0.4757854183416086</v>
       </c>
       <c r="G16">
-        <v>0.3619282123632104</v>
+        <v>0.3148728556005409</v>
       </c>
       <c r="H16">
-        <v>0.2409690873103187</v>
+        <v>0.4594677883226126</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.192898021801227</v>
+        <v>0.6989044284384818</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.093188071071246</v>
+        <v>0.3457998323468274</v>
       </c>
       <c r="N16">
-        <v>0.6049659336814202</v>
+        <v>1.234662760764792</v>
       </c>
       <c r="O16">
-        <v>1.223616527921138</v>
+        <v>1.477955195848409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3919298549132293</v>
+        <v>0.1760817695779622</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08273108351624359</v>
+        <v>0.02797935066843138</v>
       </c>
       <c r="E17">
-        <v>0.4305661400835135</v>
+        <v>0.2015788053180927</v>
       </c>
       <c r="F17">
-        <v>0.4868028543966787</v>
+        <v>0.4729805788897679</v>
       </c>
       <c r="G17">
-        <v>0.3495472282685625</v>
+        <v>0.3129017215606922</v>
       </c>
       <c r="H17">
-        <v>0.2372743640137998</v>
+        <v>0.4598273144317062</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.109038870070378</v>
+        <v>0.6724342056627393</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.04629898070111</v>
+        <v>0.3325704052182914</v>
       </c>
       <c r="N17">
-        <v>0.6159993561905139</v>
+        <v>1.239545681341305</v>
       </c>
       <c r="O17">
-        <v>1.189501110819918</v>
+        <v>1.47443615493026</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3823043098204977</v>
+        <v>0.1733713871586247</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08080662097617619</v>
+        <v>0.02735919859427582</v>
       </c>
       <c r="E18">
-        <v>0.4194834110962233</v>
+        <v>0.199043157150264</v>
       </c>
       <c r="F18">
-        <v>0.4772779329376036</v>
+        <v>0.4713984598915602</v>
       </c>
       <c r="G18">
-        <v>0.3425193498706562</v>
+        <v>0.3117923690442979</v>
       </c>
       <c r="H18">
-        <v>0.2352029907295901</v>
+        <v>0.4600562237494188</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.060824605051721</v>
+        <v>0.657189626960303</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.019412531099633</v>
+        <v>0.3249642234812598</v>
       </c>
       <c r="N18">
-        <v>0.622461893459036</v>
+        <v>1.242401662325435</v>
       </c>
       <c r="O18">
-        <v>1.170188395482</v>
+        <v>1.472509282825058</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3790492736009696</v>
+        <v>0.1724548146932676</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08015502485435633</v>
+        <v>0.0271490783689714</v>
       </c>
       <c r="E19">
-        <v>0.415746798425765</v>
+        <v>0.1981871193552607</v>
       </c>
       <c r="F19">
-        <v>0.4740703042360508</v>
+        <v>0.4708681313234919</v>
       </c>
       <c r="G19">
-        <v>0.3401554412155434</v>
+        <v>0.3114209475799612</v>
       </c>
       <c r="H19">
-        <v>0.2345107021551911</v>
+        <v>0.4601375281458928</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.044502955994773</v>
+        <v>0.6520247362301461</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.010322850320698</v>
+        <v>0.322389425592732</v>
       </c>
       <c r="N19">
-        <v>0.6246697366846377</v>
+        <v>1.243376798977806</v>
       </c>
       <c r="O19">
-        <v>1.163701329707862</v>
+        <v>1.471873563654498</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3937132603276723</v>
+        <v>0.1765839293872489</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08308725810861262</v>
+        <v>0.02809405660210729</v>
       </c>
       <c r="E20">
-        <v>0.432624945055494</v>
+        <v>0.2020492807671701</v>
       </c>
       <c r="F20">
-        <v>0.4885740480485694</v>
+        <v>0.4732759347904576</v>
       </c>
       <c r="G20">
-        <v>0.3508554446456742</v>
+        <v>0.3131090269744448</v>
       </c>
       <c r="H20">
-        <v>0.2376620678631696</v>
+        <v>0.4597867531309703</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.117963716363334</v>
+        <v>0.6752540422101845</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.051281671752207</v>
+        <v>0.3339783870170834</v>
       </c>
       <c r="N20">
-        <v>0.6148127215147312</v>
+        <v>1.239020974834425</v>
       </c>
       <c r="O20">
-        <v>1.193100409329332</v>
+        <v>1.474800703059429</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4432791771382938</v>
+        <v>0.1905339954528955</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09294041416443122</v>
+        <v>0.03125863243303684</v>
       </c>
       <c r="E21">
-        <v>0.4905145175442343</v>
+        <v>0.2151997342779808</v>
       </c>
       <c r="F21">
-        <v>0.5385763414656779</v>
+        <v>0.4817380320417115</v>
       </c>
       <c r="G21">
-        <v>0.3879531564404886</v>
+        <v>0.3190723944201181</v>
       </c>
       <c r="H21">
-        <v>0.2489063902256703</v>
+        <v>0.4588724312457089</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.365046289959793</v>
+        <v>0.7530649165132672</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.189936651877936</v>
+        <v>0.3729517232323403</v>
       </c>
       <c r="N21">
-        <v>0.5831045179867829</v>
+        <v>1.224952960643037</v>
       </c>
       <c r="O21">
-        <v>1.295673519799266</v>
+        <v>1.485797060776662</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4759167179753945</v>
+        <v>0.19970740219145</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09938301110654635</v>
+        <v>0.03331889975186897</v>
       </c>
       <c r="E22">
-        <v>0.5293297254431977</v>
+        <v>0.2239252247863135</v>
       </c>
       <c r="F22">
-        <v>0.5722831314086463</v>
+        <v>0.4875459725455329</v>
       </c>
       <c r="G22">
-        <v>0.4131286744164413</v>
+        <v>0.3231876828778297</v>
       </c>
       <c r="H22">
-        <v>0.2567774608626223</v>
+        <v>0.4584717046704014</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.52680598148936</v>
+        <v>0.803737702664904</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.281443718853225</v>
+        <v>0.398449327437902</v>
       </c>
       <c r="N22">
-        <v>0.5634772512911823</v>
+        <v>1.216181230757478</v>
       </c>
       <c r="O22">
-        <v>1.365769027610355</v>
+        <v>1.493850448647351</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4584737252254882</v>
+        <v>0.1948063022515925</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09594406611267914</v>
+        <v>0.03222003795813322</v>
       </c>
       <c r="E23">
-        <v>0.5085168324499918</v>
+        <v>0.2192562153149638</v>
       </c>
       <c r="F23">
-        <v>0.5541938904336661</v>
+        <v>0.4844207732011583</v>
       </c>
       <c r="G23">
-        <v>0.3996019437829403</v>
+        <v>0.3209713070418445</v>
       </c>
       <c r="H23">
-        <v>0.2525265283987039</v>
+        <v>0.458667576042501</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.440441109670701</v>
+        <v>0.7767095709727982</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.232515827029417</v>
+        <v>0.3848384084135859</v>
       </c>
       <c r="N23">
-        <v>0.5738494418862672</v>
+        <v>1.220824208067356</v>
       </c>
       <c r="O23">
-        <v>1.328062725138409</v>
+        <v>1.489472849791554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3929069217078762</v>
+        <v>0.1763568866120124</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08292623421906598</v>
+        <v>0.02804220161416993</v>
       </c>
       <c r="E24">
-        <v>0.4316938796776597</v>
+        <v>0.2018365371641409</v>
       </c>
       <c r="F24">
-        <v>0.4877729834289539</v>
+        <v>0.4731423096309442</v>
       </c>
       <c r="G24">
-        <v>0.3502637204060619</v>
+        <v>0.3130152298240461</v>
       </c>
       <c r="H24">
-        <v>0.2374866230525754</v>
+        <v>0.4598050217009018</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.113928802339984</v>
+        <v>0.6739792765647508</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.049028778486644</v>
+        <v>0.3333418397109824</v>
       </c>
       <c r="N24">
-        <v>0.6153488281784263</v>
+        <v>1.239258042869984</v>
       </c>
       <c r="O24">
-        <v>1.191472233146015</v>
+        <v>1.474635590983354</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3230870896204152</v>
+        <v>0.15670410908713</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06888416115883444</v>
+        <v>0.02350279780696241</v>
       </c>
       <c r="E25">
-        <v>0.3524059973440572</v>
+        <v>0.1836011912987914</v>
       </c>
       <c r="F25">
-        <v>0.4200345029673471</v>
+        <v>0.4621674775223639</v>
       </c>
       <c r="G25">
-        <v>0.3005627769284587</v>
+        <v>0.3053653904038498</v>
       </c>
       <c r="H25">
-        <v>0.2232958633428979</v>
+        <v>0.4618776794692963</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.762417915945747</v>
+        <v>0.5624219016708309</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8542039869094538</v>
+        <v>0.2779107045710916</v>
       </c>
       <c r="N25">
-        <v>0.6645326902072988</v>
+        <v>1.26095628068056</v>
       </c>
       <c r="O25">
-        <v>1.055820106090863</v>
+        <v>1.462346003505957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424505885193952</v>
+        <v>0.272300008680233</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02013275399991699</v>
+        <v>0.05852904281642424</v>
       </c>
       <c r="E2">
-        <v>0.1706397611198867</v>
+        <v>0.296453232554903</v>
       </c>
       <c r="F2">
-        <v>0.4551076624629928</v>
+        <v>0.3729927349945328</v>
       </c>
       <c r="G2">
-        <v>0.3005287660485791</v>
+        <v>0.2665014398977092</v>
       </c>
       <c r="H2">
-        <v>0.4641317007753187</v>
+        <v>0.2143782370622773</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4796567021739122</v>
+        <v>1.503627587704528</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2371909127198393</v>
+        <v>0.7126632735901026</v>
       </c>
       <c r="N2">
-        <v>1.278496167539124</v>
+        <v>0.7042623610248171</v>
       </c>
       <c r="O2">
-        <v>1.456480937381144</v>
+        <v>0.9644886452744288</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329280882201687</v>
+        <v>0.2381957648860009</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01783193070128419</v>
+        <v>0.05149408545997147</v>
       </c>
       <c r="E3">
-        <v>0.1621401311927571</v>
+        <v>0.2597532798791633</v>
       </c>
       <c r="F3">
-        <v>0.4509585701085257</v>
+        <v>0.3426378463495183</v>
       </c>
       <c r="G3">
-        <v>0.2977446921923459</v>
+        <v>0.2447720096453807</v>
       </c>
       <c r="H3">
-        <v>0.4661137010476608</v>
+        <v>0.2091903097638976</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4231847918051983</v>
+        <v>1.328007089268482</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.209650902747839</v>
+        <v>0.6175894015928449</v>
       </c>
       <c r="N3">
-        <v>1.291360057554538</v>
+        <v>0.7332484465850015</v>
       </c>
       <c r="O3">
-        <v>1.454486899445428</v>
+        <v>0.9072375585742094</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271497787846414</v>
+        <v>0.2173885697344957</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01641102853855614</v>
+        <v>0.04716396245043342</v>
       </c>
       <c r="E4">
-        <v>0.157059877418952</v>
+        <v>0.2377318491560914</v>
       </c>
       <c r="F4">
-        <v>0.4487240944589672</v>
+        <v>0.324678023621864</v>
       </c>
       <c r="G4">
-        <v>0.2962779892827996</v>
+        <v>0.23202859150949</v>
       </c>
       <c r="H4">
-        <v>0.4675549582580203</v>
+        <v>0.2063964039805199</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3883267550192784</v>
+        <v>1.219984891213045</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1927685460267412</v>
+        <v>0.5595299781120744</v>
       </c>
       <c r="N4">
-        <v>1.299740925498085</v>
+        <v>0.7520214109636534</v>
       </c>
       <c r="O4">
-        <v>1.454238123305601</v>
+        <v>0.8741650813968675</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248124873505674</v>
+        <v>0.2089398955671129</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01582997461528635</v>
+        <v>0.04539645711728468</v>
       </c>
       <c r="E5">
-        <v>0.155024263641053</v>
+        <v>0.2288744598927792</v>
       </c>
       <c r="F5">
-        <v>0.4478922514645802</v>
+        <v>0.317519409007943</v>
       </c>
       <c r="G5">
-        <v>0.2957412438193856</v>
+        <v>0.2269763364104378</v>
       </c>
       <c r="H5">
-        <v>0.4681987170948716</v>
+        <v>0.2053520309150727</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3740764014192735</v>
+        <v>1.175907529001393</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1858957995432675</v>
+        <v>0.5359358415677633</v>
       </c>
       <c r="N5">
-        <v>1.30327755394697</v>
+        <v>0.7599108986133274</v>
       </c>
       <c r="O5">
-        <v>1.454381934813512</v>
+        <v>0.861181216174117</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244254391136081</v>
+        <v>0.2075387520014118</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01573336976330353</v>
+        <v>0.04510277865545476</v>
       </c>
       <c r="E6">
-        <v>0.1546883370175323</v>
+        <v>0.2274103864140358</v>
       </c>
       <c r="F6">
-        <v>0.4477588792038176</v>
+        <v>0.3163401051727561</v>
       </c>
       <c r="G6">
-        <v>0.2956557961521753</v>
+        <v>0.2261456411861431</v>
       </c>
       <c r="H6">
-        <v>0.4683090222443624</v>
+        <v>0.2051841796263076</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3717074231467734</v>
+        <v>1.168584780545331</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1847550074545197</v>
+        <v>0.532021617783677</v>
       </c>
       <c r="N6">
-        <v>1.30387213976023</v>
+        <v>0.7612352303243064</v>
       </c>
       <c r="O6">
-        <v>1.454420619802022</v>
+        <v>0.8590542189963912</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271181864972135</v>
+        <v>0.2172745086405854</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01640320039524568</v>
+        <v>0.04714013752907675</v>
       </c>
       <c r="E7">
-        <v>0.1570322844776371</v>
+        <v>0.2376119393485752</v>
       </c>
       <c r="F7">
-        <v>0.4487125571882444</v>
+        <v>0.3245808449389429</v>
       </c>
       <c r="G7">
-        <v>0.2962705038882731</v>
+        <v>0.2319598974856376</v>
       </c>
       <c r="H7">
-        <v>0.4675634116700706</v>
+        <v>0.2063819434343444</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3881347525310161</v>
+        <v>1.21939069322255</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.192675829512126</v>
+        <v>0.5592115318638591</v>
       </c>
       <c r="N7">
-        <v>1.299788130261298</v>
+        <v>0.7521268498455314</v>
       </c>
       <c r="O7">
-        <v>1.454239070202277</v>
+        <v>0.8739880166233149</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391531092357638</v>
+        <v>0.2605114143986924</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0193411491858555</v>
+        <v>0.05610542601760926</v>
       </c>
       <c r="E8">
-        <v>0.1676802031045668</v>
+        <v>0.2836850720916075</v>
       </c>
       <c r="F8">
-        <v>0.4536120701563604</v>
+        <v>0.3623792046670786</v>
       </c>
       <c r="G8">
-        <v>0.2995183838928668</v>
+        <v>0.2588789104455174</v>
       </c>
       <c r="H8">
-        <v>0.46476855967191</v>
+        <v>0.2125055423881079</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4602238885101428</v>
+        <v>1.443107195904219</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2276894871486235</v>
+        <v>0.6798074632004045</v>
       </c>
       <c r="N8">
-        <v>1.282831551654471</v>
+        <v>0.7140506821951433</v>
       </c>
       <c r="O8">
-        <v>1.455590832738139</v>
+        <v>0.9442985349909492</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1632907710933011</v>
+        <v>0.3464994708795501</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02503625265241993</v>
+        <v>0.0736157354799829</v>
       </c>
       <c r="E9">
-        <v>0.1896707669518207</v>
+        <v>0.3786959932566347</v>
       </c>
       <c r="F9">
-        <v>0.4657055809154329</v>
+        <v>0.44237840762014</v>
       </c>
       <c r="G9">
-        <v>0.3078182432949035</v>
+        <v>0.3168795875360075</v>
       </c>
       <c r="H9">
-        <v>0.461066466643274</v>
+        <v>0.2278243552248824</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6000985992871222</v>
+        <v>1.880785382004319</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2965678356974095</v>
+        <v>0.9194867862821567</v>
       </c>
       <c r="N9">
-        <v>1.253404516404839</v>
+        <v>0.6474005004849985</v>
       </c>
       <c r="O9">
-        <v>1.465990501885727</v>
+        <v>1.100090903641217</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1813451557723766</v>
+        <v>0.4106244292537866</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02917878712145239</v>
+        <v>0.08645882739804023</v>
       </c>
       <c r="E10">
-        <v>0.2065204593568595</v>
+        <v>0.4522312419442045</v>
       </c>
       <c r="F10">
-        <v>0.4761096913153864</v>
+        <v>0.5054676030103735</v>
       </c>
       <c r="G10">
-        <v>0.3151010831835634</v>
+        <v>0.3633539416606624</v>
       </c>
       <c r="H10">
-        <v>0.4594297606819424</v>
+        <v>0.2413981061008883</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7019221860259108</v>
+        <v>2.202469893417771</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3473098107271895</v>
+        <v>1.098550167949348</v>
       </c>
       <c r="N10">
-        <v>1.234112015567177</v>
+        <v>0.60372291254712</v>
       </c>
       <c r="O10">
-        <v>1.478369916169726</v>
+        <v>1.227552274267083</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1896267521109962</v>
+        <v>0.4400536591452919</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03105403249586658</v>
+        <v>0.09230181283854222</v>
       </c>
       <c r="E11">
-        <v>0.21433999679072</v>
+        <v>0.486708328543429</v>
       </c>
       <c r="F11">
-        <v>0.4811735288528922</v>
+        <v>0.5352780765172653</v>
       </c>
       <c r="G11">
-        <v>0.318673287859113</v>
+        <v>0.3854966699091165</v>
       </c>
       <c r="H11">
-        <v>0.4589202034386233</v>
+        <v>0.2481480423318629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7480333347168084</v>
+        <v>2.349021252140602</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3704247621222478</v>
+        <v>1.180902677317803</v>
       </c>
       <c r="N11">
-        <v>1.225839920796176</v>
+        <v>0.5850962486425644</v>
       </c>
       <c r="O11">
-        <v>1.485034019371227</v>
+        <v>1.288853562841979</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1927724759862457</v>
+        <v>0.4512392537736787</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03176278364555429</v>
+        <v>0.09451490324477874</v>
       </c>
       <c r="E12">
-        <v>0.2173235275171734</v>
+        <v>0.4999306460200756</v>
       </c>
       <c r="F12">
-        <v>0.4831386971345566</v>
+        <v>0.5467415831731515</v>
       </c>
       <c r="G12">
-        <v>0.3200633771113672</v>
+        <v>0.3940399351738222</v>
       </c>
       <c r="H12">
-        <v>0.4587610164365685</v>
+        <v>0.2507931375367036</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7654636287890071</v>
+        <v>2.404563221467868</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3791824093956677</v>
+        <v>1.212238201336071</v>
       </c>
       <c r="N12">
-        <v>1.222779948840888</v>
+        <v>0.5782299971450939</v>
       </c>
       <c r="O12">
-        <v>1.487706238956235</v>
+        <v>1.312587831007164</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1920945614355247</v>
+        <v>0.4488283255542171</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03161020266514214</v>
+        <v>0.09403824682664919</v>
       </c>
       <c r="E13">
-        <v>0.2166799691875525</v>
+        <v>0.4970752532922305</v>
       </c>
       <c r="F13">
-        <v>0.4827133456558741</v>
+        <v>0.5442646793112687</v>
       </c>
       <c r="G13">
-        <v>0.3197623327764916</v>
+        <v>0.3921927116481214</v>
       </c>
       <c r="H13">
-        <v>0.4587937985341597</v>
+        <v>0.2502194033478702</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7617110969115117</v>
+        <v>2.39259895723589</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3772960942284556</v>
+        <v>1.205482483305886</v>
       </c>
       <c r="N13">
-        <v>1.22343574458381</v>
+        <v>0.5797002962721152</v>
       </c>
       <c r="O13">
-        <v>1.487124113828145</v>
+        <v>1.307452342575431</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1898853601737756</v>
+        <v>0.4409730503419524</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0311123694294011</v>
+        <v>0.09248387318935158</v>
       </c>
       <c r="E14">
-        <v>0.2145850026335694</v>
+        <v>0.4877926828334296</v>
       </c>
       <c r="F14">
-        <v>0.4813342503334326</v>
+        <v>0.5362175897164221</v>
       </c>
       <c r="G14">
-        <v>0.3187869017639287</v>
+        <v>0.3861962715899381</v>
       </c>
       <c r="H14">
-        <v>0.4589064303148973</v>
+        <v>0.2483638335738192</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7494679622027149</v>
+        <v>2.353589707165639</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3711451691410872</v>
+        <v>1.183477525288176</v>
       </c>
       <c r="N14">
-        <v>1.225586722267813</v>
+        <v>0.5845275538965353</v>
       </c>
       <c r="O14">
-        <v>1.485250883955104</v>
+        <v>1.290795497329015</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1885334131827534</v>
+        <v>0.4361669861116013</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0308072534731636</v>
+        <v>0.0915318488563841</v>
       </c>
       <c r="E15">
-        <v>0.2133047042295999</v>
+        <v>0.4821291291360978</v>
       </c>
       <c r="F15">
-        <v>0.4804957142626094</v>
+        <v>0.5313117635980547</v>
       </c>
       <c r="G15">
-        <v>0.3181942920915048</v>
+        <v>0.3825443348020769</v>
       </c>
       <c r="H15">
-        <v>0.4589798179614917</v>
+        <v>0.247239034597456</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7419646235756261</v>
+        <v>2.32970189652076</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3673781348780025</v>
+        <v>1.170019112256675</v>
       </c>
       <c r="N15">
-        <v>1.226913698492929</v>
+        <v>0.5875090396034821</v>
       </c>
       <c r="O15">
-        <v>1.484122842733001</v>
+        <v>1.280661867306804</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1808052969037988</v>
+        <v>0.4087067159308617</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02905604671610007</v>
+        <v>0.08607701960467296</v>
       </c>
       <c r="E16">
-        <v>0.2060125625673805</v>
+        <v>0.4500003202274527</v>
       </c>
       <c r="F16">
-        <v>0.4757854183416086</v>
+        <v>0.5035430474481046</v>
       </c>
       <c r="G16">
-        <v>0.3148728556005409</v>
+        <v>0.3619282123632104</v>
       </c>
       <c r="H16">
-        <v>0.4594677883226126</v>
+        <v>0.2409690873102051</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6989044284384818</v>
+        <v>2.19289802180117</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3457998323468274</v>
+        <v>1.093188071071268</v>
       </c>
       <c r="N16">
-        <v>1.234662760764792</v>
+        <v>0.604965933681413</v>
       </c>
       <c r="O16">
-        <v>1.477955195848409</v>
+        <v>1.223616527921138</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1760817695779622</v>
+        <v>0.3919298549132293</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02797935066843138</v>
+        <v>0.08273108351597358</v>
       </c>
       <c r="E17">
-        <v>0.2015788053180927</v>
+        <v>0.4305661400835277</v>
       </c>
       <c r="F17">
-        <v>0.4729805788897679</v>
+        <v>0.4868028543966645</v>
       </c>
       <c r="G17">
-        <v>0.3129017215606922</v>
+        <v>0.349547228268591</v>
       </c>
       <c r="H17">
-        <v>0.4598273144317062</v>
+        <v>0.2372743640137855</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6724342056627393</v>
+        <v>2.109038870070407</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3325704052182914</v>
+        <v>1.04629898070111</v>
       </c>
       <c r="N17">
-        <v>1.239545681341305</v>
+        <v>0.6159993561905139</v>
       </c>
       <c r="O17">
-        <v>1.47443615493026</v>
+        <v>1.189501110819918</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1733713871586247</v>
+        <v>0.3823043098206114</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02735919859427582</v>
+        <v>0.08080662097622593</v>
       </c>
       <c r="E18">
-        <v>0.199043157150264</v>
+        <v>0.4194834110962518</v>
       </c>
       <c r="F18">
-        <v>0.4713984598915602</v>
+        <v>0.4772779329376036</v>
       </c>
       <c r="G18">
-        <v>0.3117923690442979</v>
+        <v>0.3425193498707131</v>
       </c>
       <c r="H18">
-        <v>0.4600562237494188</v>
+        <v>0.2352029907296043</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.657189626960303</v>
+        <v>2.060824605051664</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3249642234812598</v>
+        <v>1.019412531099618</v>
       </c>
       <c r="N18">
-        <v>1.242401662325435</v>
+        <v>0.6224618934590893</v>
       </c>
       <c r="O18">
-        <v>1.472509282825058</v>
+        <v>1.170188395481972</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1724548146932676</v>
+        <v>0.3790492736008559</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0271490783689714</v>
+        <v>0.08015502485424264</v>
       </c>
       <c r="E19">
-        <v>0.1981871193552607</v>
+        <v>0.4157467984257579</v>
       </c>
       <c r="F19">
-        <v>0.4708681313234919</v>
+        <v>0.4740703042360579</v>
       </c>
       <c r="G19">
-        <v>0.3114209475799612</v>
+        <v>0.3401554412155008</v>
       </c>
       <c r="H19">
-        <v>0.4601375281458928</v>
+        <v>0.2345107021551911</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6520247362301461</v>
+        <v>2.04450295599483</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.322389425592732</v>
+        <v>1.010322850320712</v>
       </c>
       <c r="N19">
-        <v>1.243376798977806</v>
+        <v>0.6246697366846377</v>
       </c>
       <c r="O19">
-        <v>1.471873563654498</v>
+        <v>1.163701329707891</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1765839293872489</v>
+        <v>0.3937132603274449</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02809405660210729</v>
+        <v>0.08308725810873341</v>
       </c>
       <c r="E20">
-        <v>0.2020492807671701</v>
+        <v>0.4326249450555366</v>
       </c>
       <c r="F20">
-        <v>0.4732759347904576</v>
+        <v>0.4885740480485907</v>
       </c>
       <c r="G20">
-        <v>0.3131090269744448</v>
+        <v>0.3508554446456174</v>
       </c>
       <c r="H20">
-        <v>0.4597867531309703</v>
+        <v>0.2376620678632833</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6752540422101845</v>
+        <v>2.117963716363391</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3339783870170834</v>
+        <v>1.051281671752214</v>
       </c>
       <c r="N20">
-        <v>1.239020974834425</v>
+        <v>0.6148127215147383</v>
       </c>
       <c r="O20">
-        <v>1.474800703059429</v>
+        <v>1.193100409329304</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1905339954528955</v>
+        <v>0.4432791771382938</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03125863243303684</v>
+        <v>0.09294041416443122</v>
       </c>
       <c r="E21">
-        <v>0.2151997342779808</v>
+        <v>0.4905145175442343</v>
       </c>
       <c r="F21">
-        <v>0.4817380320417115</v>
+        <v>0.5385763414656779</v>
       </c>
       <c r="G21">
-        <v>0.3190723944201181</v>
+        <v>0.3879531564405454</v>
       </c>
       <c r="H21">
-        <v>0.4588724312457089</v>
+        <v>0.2489063902255566</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7530649165132672</v>
+        <v>2.365046289959878</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3729517232323403</v>
+        <v>1.18993665187795</v>
       </c>
       <c r="N21">
-        <v>1.224952960643037</v>
+        <v>0.58310451798679</v>
       </c>
       <c r="O21">
-        <v>1.485797060776662</v>
+        <v>1.295673519799237</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.19970740219145</v>
+        <v>0.4759167179754229</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03331889975186897</v>
+        <v>0.09938301110653924</v>
       </c>
       <c r="E22">
-        <v>0.2239252247863135</v>
+        <v>0.5293297254431906</v>
       </c>
       <c r="F22">
-        <v>0.4875459725455329</v>
+        <v>0.5722831314086392</v>
       </c>
       <c r="G22">
-        <v>0.3231876828778297</v>
+        <v>0.413128674416356</v>
       </c>
       <c r="H22">
-        <v>0.4584717046704014</v>
+        <v>0.2567774608626223</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.803737702664904</v>
+        <v>2.526805981489503</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.398449327437902</v>
+        <v>1.281443718853268</v>
       </c>
       <c r="N22">
-        <v>1.216181230757478</v>
+        <v>0.5634772512911184</v>
       </c>
       <c r="O22">
-        <v>1.493850448647351</v>
+        <v>1.365769027610355</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1948063022515925</v>
+        <v>0.4584737252252609</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03222003795813322</v>
+        <v>0.09594406611289941</v>
       </c>
       <c r="E23">
-        <v>0.2192562153149638</v>
+        <v>0.508516832450006</v>
       </c>
       <c r="F23">
-        <v>0.4844207732011583</v>
+        <v>0.554193890433659</v>
       </c>
       <c r="G23">
-        <v>0.3209713070418445</v>
+        <v>0.3996019437830114</v>
       </c>
       <c r="H23">
-        <v>0.458667576042501</v>
+        <v>0.2525265283988318</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7767095709727982</v>
+        <v>2.440441109670644</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3848384084135859</v>
+        <v>1.232515827029388</v>
       </c>
       <c r="N23">
-        <v>1.220824208067356</v>
+        <v>0.5738494418862672</v>
       </c>
       <c r="O23">
-        <v>1.489472849791554</v>
+        <v>1.328062725138381</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1763568866120124</v>
+        <v>0.3929069217079615</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02804220161416993</v>
+        <v>0.08292623421925782</v>
       </c>
       <c r="E24">
-        <v>0.2018365371641409</v>
+        <v>0.431693879677681</v>
       </c>
       <c r="F24">
-        <v>0.4731423096309442</v>
+        <v>0.487772983428961</v>
       </c>
       <c r="G24">
-        <v>0.3130152298240461</v>
+        <v>0.3502637204060477</v>
       </c>
       <c r="H24">
-        <v>0.4598050217009018</v>
+        <v>0.2374866230524617</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6739792765647508</v>
+        <v>2.113928802339956</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3333418397109824</v>
+        <v>1.049028778486637</v>
       </c>
       <c r="N24">
-        <v>1.239258042869984</v>
+        <v>0.6153488281784192</v>
       </c>
       <c r="O24">
-        <v>1.474635590983354</v>
+        <v>1.191472233146044</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.15670410908713</v>
+        <v>0.323087089620401</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02350279780696241</v>
+        <v>0.06888416115879892</v>
       </c>
       <c r="E25">
-        <v>0.1836011912987914</v>
+        <v>0.3524059973440572</v>
       </c>
       <c r="F25">
-        <v>0.4621674775223639</v>
+        <v>0.4200345029673755</v>
       </c>
       <c r="G25">
-        <v>0.3053653904038498</v>
+        <v>0.3005627769284303</v>
       </c>
       <c r="H25">
-        <v>0.4618776794692963</v>
+        <v>0.2232958633428979</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5624219016708309</v>
+        <v>1.762417915945917</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2779107045710916</v>
+        <v>0.8542039869094751</v>
       </c>
       <c r="N25">
-        <v>1.26095628068056</v>
+        <v>0.6645326902072881</v>
       </c>
       <c r="O25">
-        <v>1.462346003505957</v>
+        <v>1.055820106090863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.272300008680233</v>
+        <v>2.293035943297355</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05852904281642424</v>
+        <v>0.222373788705724</v>
       </c>
       <c r="E2">
-        <v>0.296453232554903</v>
+        <v>0.3747894604408657</v>
       </c>
       <c r="F2">
-        <v>0.3729927349945328</v>
+        <v>1.071672820757797</v>
       </c>
       <c r="G2">
-        <v>0.2665014398977092</v>
+        <v>1.202877912561434</v>
       </c>
       <c r="H2">
-        <v>0.2143782370622773</v>
+        <v>0.003132429250412627</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02243277037334712</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7113217349084948</v>
       </c>
       <c r="K2">
-        <v>1.503627587704528</v>
+        <v>0.36847889726352</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.6041556954114071</v>
       </c>
       <c r="M2">
-        <v>0.7126632735901026</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7042623610248171</v>
+        <v>1.383399919191561</v>
       </c>
       <c r="O2">
-        <v>0.9644886452744288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8753471105596518</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2381957648860009</v>
+        <v>2.001649276142246</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05149408545997147</v>
+        <v>0.1987022658382216</v>
       </c>
       <c r="E3">
-        <v>0.2597532798791633</v>
+        <v>0.33380301372096</v>
       </c>
       <c r="F3">
-        <v>0.3426378463495183</v>
+        <v>0.9990875881393748</v>
       </c>
       <c r="G3">
-        <v>0.2447720096453807</v>
+        <v>1.081257509824127</v>
       </c>
       <c r="H3">
-        <v>0.2091903097638976</v>
+        <v>0.005633047701173177</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02664406136934838</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6615633706085902</v>
       </c>
       <c r="K3">
-        <v>1.328007089268482</v>
+        <v>0.3918647367224528</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.5373592897688155</v>
       </c>
       <c r="M3">
-        <v>0.6175894015928449</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7332484465850015</v>
+        <v>1.205787495592318</v>
       </c>
       <c r="O3">
-        <v>0.9072375585742094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7636924199479651</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2173885697344957</v>
+        <v>1.82243393740643</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04716396245043342</v>
+        <v>0.1843036766724708</v>
       </c>
       <c r="E4">
-        <v>0.2377318491560914</v>
+        <v>0.308848796055571</v>
       </c>
       <c r="F4">
-        <v>0.324678023621864</v>
+        <v>0.956119286805361</v>
       </c>
       <c r="G4">
-        <v>0.23202859150949</v>
+        <v>1.008441860165206</v>
       </c>
       <c r="H4">
-        <v>0.2063964039805199</v>
+        <v>0.007584884618813903</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02951554255195976</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6320786808701087</v>
       </c>
       <c r="K4">
-        <v>1.219984891213045</v>
+        <v>0.4069027617469763</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4966866971624029</v>
       </c>
       <c r="M4">
-        <v>0.5595299781120744</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7520214109636534</v>
+        <v>1.097598720086609</v>
       </c>
       <c r="O4">
-        <v>0.8741650813968675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6953175819168962</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2089398955671129</v>
+        <v>1.749051700875839</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04539645711728468</v>
+        <v>0.1785762180629291</v>
       </c>
       <c r="E5">
-        <v>0.2288744598927792</v>
+        <v>0.2991070132719429</v>
       </c>
       <c r="F5">
-        <v>0.317519409007943</v>
+        <v>0.9376433580813881</v>
       </c>
       <c r="G5">
-        <v>0.2269763364104378</v>
+        <v>0.9778462387737648</v>
       </c>
       <c r="H5">
-        <v>0.2053520309150727</v>
+        <v>0.008479528160441688</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.03084993622034693</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6196190880445158</v>
       </c>
       <c r="K5">
-        <v>1.175907529001393</v>
+        <v>0.4131125466051948</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4809448679175432</v>
       </c>
       <c r="M5">
-        <v>0.5359358415677633</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7599108986133274</v>
+        <v>1.055486250307609</v>
       </c>
       <c r="O5">
-        <v>0.861181216174117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6679805774607601</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2075387520014118</v>
+        <v>1.736539922556233</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04510277865545476</v>
+        <v>0.1777649341816527</v>
       </c>
       <c r="E6">
-        <v>0.2274103864140358</v>
+        <v>0.2979615344291631</v>
       </c>
       <c r="F6">
-        <v>0.3163401051727561</v>
+        <v>0.9329655276554831</v>
       </c>
       <c r="G6">
-        <v>0.2261456411861431</v>
+        <v>0.9711483521716531</v>
       </c>
       <c r="H6">
-        <v>0.2051841796263076</v>
+        <v>0.008634907615670998</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.03119962819583488</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6167200658106964</v>
       </c>
       <c r="K6">
-        <v>1.168584780545331</v>
+        <v>0.4140580605570401</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4792670399495904</v>
       </c>
       <c r="M6">
-        <v>0.532021617783677</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7612352303243064</v>
+        <v>1.050685860632711</v>
       </c>
       <c r="O6">
-        <v>0.8590542189963912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6640422202759382</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2172745086405854</v>
+        <v>1.820563668901343</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04714013752907675</v>
+        <v>0.1846055299790237</v>
       </c>
       <c r="E7">
-        <v>0.2376119393485752</v>
+        <v>0.3100040484954505</v>
       </c>
       <c r="F7">
-        <v>0.3245808449389429</v>
+        <v>0.9514146087005173</v>
       </c>
       <c r="G7">
-        <v>0.2319598974856376</v>
+        <v>1.003541915901636</v>
       </c>
       <c r="H7">
-        <v>0.2063819434343444</v>
+        <v>0.007598988940326484</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02985404060707975</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6296044685943798</v>
       </c>
       <c r="K7">
-        <v>1.21939069322255</v>
+        <v>0.4067392141439035</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4990267771779742</v>
       </c>
       <c r="M7">
-        <v>0.5592115318638591</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7521268498455314</v>
+        <v>1.102996713822932</v>
       </c>
       <c r="O7">
-        <v>0.8739880166233149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6965872849666468</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2605114143986924</v>
+        <v>2.191437971452615</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05610542601760926</v>
+        <v>0.2146877005260563</v>
       </c>
       <c r="E8">
-        <v>0.2836850720916075</v>
+        <v>0.3623305022277918</v>
       </c>
       <c r="F8">
-        <v>0.3623792046670786</v>
+        <v>1.04041028557269</v>
       </c>
       <c r="G8">
-        <v>0.2588789104455174</v>
+        <v>1.154587756801021</v>
       </c>
       <c r="H8">
-        <v>0.2125055423881079</v>
+        <v>0.003905732945569396</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02420656484193184</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6908858290056514</v>
       </c>
       <c r="K8">
-        <v>1.443107195904219</v>
+        <v>0.3761590383795843</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5844610676731747</v>
       </c>
       <c r="M8">
-        <v>0.6798074632004045</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7140506821951433</v>
+        <v>1.329915355652986</v>
       </c>
       <c r="O8">
-        <v>0.9442985349909492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.8389875002007656</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3464994708795501</v>
+        <v>2.918576678875468</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0736157354799829</v>
+        <v>0.2744075328991613</v>
       </c>
       <c r="E9">
-        <v>0.3786959932566347</v>
+        <v>0.4647225042152101</v>
       </c>
       <c r="F9">
-        <v>0.44237840762014</v>
+        <v>1.237221782562827</v>
       </c>
       <c r="G9">
-        <v>0.3168795875360075</v>
+        <v>1.475923761043248</v>
       </c>
       <c r="H9">
-        <v>0.2278243552248824</v>
+        <v>0.0002720312134629754</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01507014493133418</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8247252649361201</v>
       </c>
       <c r="K9">
-        <v>1.880785382004319</v>
+        <v>0.3221223312404211</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.7506957457369339</v>
       </c>
       <c r="M9">
-        <v>0.9194867862821567</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6474005004849985</v>
+        <v>1.772077466596386</v>
       </c>
       <c r="O9">
-        <v>1.100090903641217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.117136512755124</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4106244292537866</v>
+        <v>3.454279480366722</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08645882739804023</v>
+        <v>0.3222784257721969</v>
       </c>
       <c r="E10">
-        <v>0.4522312419442045</v>
+        <v>0.5506883605600876</v>
       </c>
       <c r="F10">
-        <v>0.5054676030103735</v>
+        <v>1.36575331831898</v>
       </c>
       <c r="G10">
-        <v>0.3633539416606624</v>
+        <v>1.697830521508337</v>
       </c>
       <c r="H10">
-        <v>0.2413981061008883</v>
+        <v>0.0004119851466102276</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01028296216581825</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9163649192667549</v>
       </c>
       <c r="K10">
-        <v>2.202469893417771</v>
+        <v>0.2866476508933999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.8931724481740559</v>
       </c>
       <c r="M10">
-        <v>1.098550167949348</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.60372291254712</v>
+        <v>2.092071437487817</v>
       </c>
       <c r="O10">
-        <v>1.227552274267083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.320123543322879</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4400536591452919</v>
+        <v>3.714088102626363</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09230181283854222</v>
+        <v>0.3673543791449418</v>
       </c>
       <c r="E11">
-        <v>0.486708328543429</v>
+        <v>0.6693890239442482</v>
       </c>
       <c r="F11">
-        <v>0.5352780765172653</v>
+        <v>1.208247990963045</v>
       </c>
       <c r="G11">
-        <v>0.3854966699091165</v>
+        <v>1.57434207398498</v>
       </c>
       <c r="H11">
-        <v>0.2481480423318629</v>
+        <v>0.019223230273262</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.009452869943388009</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8451135799004135</v>
       </c>
       <c r="K11">
-        <v>2.349021252140602</v>
+        <v>0.2902237047291099</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.116471274547621</v>
       </c>
       <c r="M11">
-        <v>1.180902677317803</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5850962486425644</v>
+        <v>2.123254161086606</v>
       </c>
       <c r="O11">
-        <v>1.288853562841979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.38051280618464</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4512392537736787</v>
+        <v>3.822205937808576</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09451490324477874</v>
+        <v>0.3962167387512494</v>
       </c>
       <c r="E12">
-        <v>0.4999306460200756</v>
+        <v>0.7572588033659287</v>
       </c>
       <c r="F12">
-        <v>0.5467415831731515</v>
+        <v>1.061314211311355</v>
       </c>
       <c r="G12">
-        <v>0.3940399351738222</v>
+        <v>1.43375940904042</v>
       </c>
       <c r="H12">
-        <v>0.2507931375367036</v>
+        <v>0.0579480561969703</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.009085761835527784</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7706038744220791</v>
       </c>
       <c r="K12">
-        <v>2.404563221467868</v>
+        <v>0.3179364011036974</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.288255451559934</v>
       </c>
       <c r="M12">
-        <v>1.212238201336071</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5782299971450939</v>
+        <v>2.070274888845347</v>
       </c>
       <c r="O12">
-        <v>1.312587831007164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.384864816306276</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4488283255542171</v>
+        <v>3.817266226162531</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09403824682664919</v>
+        <v>0.4144359238608928</v>
       </c>
       <c r="E13">
-        <v>0.4970752532922305</v>
+        <v>0.827395652280245</v>
       </c>
       <c r="F13">
-        <v>0.5442646793112687</v>
+        <v>0.9068462055896447</v>
       </c>
       <c r="G13">
-        <v>0.3921927116481214</v>
+        <v>1.264449738739955</v>
       </c>
       <c r="H13">
-        <v>0.2502194033478702</v>
+        <v>0.1135395031903954</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.009437742823586781</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6854246281851886</v>
       </c>
       <c r="K13">
-        <v>2.39259895723589</v>
+        <v>0.3641944908604131</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.432232938301865</v>
       </c>
       <c r="M13">
-        <v>1.205482483305886</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5797002962721152</v>
+        <v>1.959371256173483</v>
       </c>
       <c r="O13">
-        <v>1.307452342575431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.348880039544412</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4409730503419524</v>
+        <v>3.762236382546405</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09248387318935158</v>
+        <v>0.4225605744794194</v>
       </c>
       <c r="E14">
-        <v>0.4877926828334296</v>
+        <v>0.8694137628857987</v>
       </c>
       <c r="F14">
-        <v>0.5362175897164221</v>
+        <v>0.7962179411996857</v>
       </c>
       <c r="G14">
-        <v>0.3861962715899381</v>
+        <v>1.133605462685694</v>
       </c>
       <c r="H14">
-        <v>0.2483638335738192</v>
+        <v>0.1627106414282764</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01011477004340122</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6212217760355543</v>
       </c>
       <c r="K14">
-        <v>2.353589707165639</v>
+        <v>0.4071201776812785</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.522537041588976</v>
       </c>
       <c r="M14">
-        <v>1.183477525288176</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5845275538965353</v>
+        <v>1.857939085352825</v>
       </c>
       <c r="O14">
-        <v>1.290795497329015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.306057922080996</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4361669861116013</v>
+        <v>3.724212847514195</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0915318488563841</v>
+        <v>0.4222084627878644</v>
       </c>
       <c r="E15">
-        <v>0.4821291291360978</v>
+        <v>0.8753833497272154</v>
       </c>
       <c r="F15">
-        <v>0.5313117635980547</v>
+        <v>0.7657508514032543</v>
       </c>
       <c r="G15">
-        <v>0.3825443348020769</v>
+        <v>1.093973764199148</v>
       </c>
       <c r="H15">
-        <v>0.247239034597456</v>
+        <v>0.1751360657623451</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01058678505015287</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.602500829497842</v>
       </c>
       <c r="K15">
-        <v>2.32970189652076</v>
+        <v>0.4200354624638862</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.537456047235167</v>
       </c>
       <c r="M15">
-        <v>1.170019112256675</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5875090396034821</v>
+        <v>1.82362112662301</v>
       </c>
       <c r="O15">
-        <v>1.280661867306804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.287887774454305</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4087067159308617</v>
+        <v>3.49255720550417</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08607701960467296</v>
+        <v>0.3970146802636236</v>
       </c>
       <c r="E16">
-        <v>0.4500003202274527</v>
+        <v>0.821882142069029</v>
       </c>
       <c r="F16">
-        <v>0.5035430474481046</v>
+        <v>0.7402944312911615</v>
       </c>
       <c r="G16">
-        <v>0.3619282123632104</v>
+        <v>1.031133968240155</v>
       </c>
       <c r="H16">
-        <v>0.2409690873102051</v>
+        <v>0.1620730704308357</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01259570776024965</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5792115173244667</v>
       </c>
       <c r="K16">
-        <v>2.19289802180117</v>
+        <v>0.4222646109383454</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.442634318535909</v>
       </c>
       <c r="M16">
-        <v>1.093188071071268</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.604965933681413</v>
+        <v>1.714500851966903</v>
       </c>
       <c r="O16">
-        <v>1.223616527921138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.209411903239371</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3919298549132293</v>
+        <v>3.344656774766747</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08273108351597358</v>
+        <v>0.3735101630433775</v>
       </c>
       <c r="E17">
-        <v>0.4305661400835277</v>
+        <v>0.7585645561710521</v>
       </c>
       <c r="F17">
-        <v>0.4868028543966645</v>
+        <v>0.7787244017922603</v>
       </c>
       <c r="G17">
-        <v>0.349547228268591</v>
+        <v>1.051939780808226</v>
       </c>
       <c r="H17">
-        <v>0.2372743640137855</v>
+        <v>0.1242523553063108</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01384800100929251</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5952802070640928</v>
       </c>
       <c r="K17">
-        <v>2.109038870070407</v>
+        <v>0.4004913971713826</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.321801457728185</v>
       </c>
       <c r="M17">
-        <v>1.04629898070111</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6159993561905139</v>
+        <v>1.684768448797371</v>
       </c>
       <c r="O17">
-        <v>1.189501110819918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.172113079624353</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3823043098206114</v>
+        <v>3.252479782048056</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08080662097622593</v>
+        <v>0.3489222719774006</v>
       </c>
       <c r="E18">
-        <v>0.4194834110962518</v>
+        <v>0.6813758648921322</v>
       </c>
       <c r="F18">
-        <v>0.4772779329376036</v>
+        <v>0.8828917900214179</v>
       </c>
       <c r="G18">
-        <v>0.3425193498707131</v>
+        <v>1.152220631579809</v>
       </c>
       <c r="H18">
-        <v>0.2352029907296043</v>
+        <v>0.07147494486989814</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01412857118249899</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6495100054829948</v>
       </c>
       <c r="K18">
-        <v>2.060824605051664</v>
+        <v>0.3619309236261117</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.169189897763857</v>
       </c>
       <c r="M18">
-        <v>1.019412531099618</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6224618934590893</v>
+        <v>1.714437935346211</v>
       </c>
       <c r="O18">
-        <v>1.170188395481972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.164087954391249</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3790492736008559</v>
+        <v>3.20994758929163</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08015502485424264</v>
+        <v>0.3269674739234176</v>
       </c>
       <c r="E19">
-        <v>0.4157467984257579</v>
+        <v>0.6065446351285786</v>
       </c>
       <c r="F19">
-        <v>0.4740703042360579</v>
+        <v>1.032415587980026</v>
       </c>
       <c r="G19">
-        <v>0.3401554412155008</v>
+        <v>1.307062681400936</v>
       </c>
       <c r="H19">
-        <v>0.2345107021551911</v>
+        <v>0.02625507006628425</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01413191877183273</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7290941267476683</v>
       </c>
       <c r="K19">
-        <v>2.04450295599483</v>
+        <v>0.3276876359722358</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.019223647465083</v>
       </c>
       <c r="M19">
-        <v>1.010322850320712</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6246697366846377</v>
+        <v>1.800958100038059</v>
       </c>
       <c r="O19">
-        <v>1.163701329707891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.183002140125367</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3937132603274449</v>
+        <v>3.310793384641727</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08308725810873341</v>
+        <v>0.3109185562529291</v>
       </c>
       <c r="E20">
-        <v>0.4326249450555366</v>
+        <v>0.5324749168803251</v>
       </c>
       <c r="F20">
-        <v>0.4885740480485907</v>
+        <v>1.316404372850073</v>
       </c>
       <c r="G20">
-        <v>0.3508554446456174</v>
+        <v>1.623471426507848</v>
       </c>
       <c r="H20">
-        <v>0.2376620678632833</v>
+        <v>0.000163661857541797</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01233115038742394</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.8840858826586384</v>
       </c>
       <c r="K20">
-        <v>2.117963716363391</v>
+        <v>0.2958633505311932</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.8644940486312436</v>
       </c>
       <c r="M20">
-        <v>1.051281671752214</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6148127215147383</v>
+        <v>2.026041755682712</v>
       </c>
       <c r="O20">
-        <v>1.193100409329304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.271747394579648</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4432791771382938</v>
+        <v>3.719730493524594</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09294041416443122</v>
+        <v>0.3442854383809788</v>
       </c>
       <c r="E21">
-        <v>0.4905145175442343</v>
+        <v>0.5858452508842262</v>
       </c>
       <c r="F21">
-        <v>0.5385763414656779</v>
+        <v>1.461163529162306</v>
       </c>
       <c r="G21">
-        <v>0.3879531564405454</v>
+        <v>1.842395834921604</v>
       </c>
       <c r="H21">
-        <v>0.2489063902255566</v>
+        <v>0.001037816956269477</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.008949562085509122</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.9789807529220411</v>
       </c>
       <c r="K21">
-        <v>2.365046289959878</v>
+        <v>0.2693475596334638</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.9485047243680498</v>
       </c>
       <c r="M21">
-        <v>1.18993665187795</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.58310451798679</v>
+        <v>2.292294011960024</v>
       </c>
       <c r="O21">
-        <v>1.295673519799237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.433286551636016</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4759167179754229</v>
+        <v>3.989553825016174</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09938301110653924</v>
+        <v>0.3672494654908292</v>
       </c>
       <c r="E22">
-        <v>0.5293297254431906</v>
+        <v>0.6237223984695817</v>
       </c>
       <c r="F22">
-        <v>0.5722831314086392</v>
+        <v>1.55166595015362</v>
       </c>
       <c r="G22">
-        <v>0.413128674416356</v>
+        <v>1.981927219595462</v>
       </c>
       <c r="H22">
-        <v>0.2567774608626223</v>
+        <v>0.002317757703498846</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.006810952305164264</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.039281862312805</v>
       </c>
       <c r="K22">
-        <v>2.526805981489503</v>
+        <v>0.2530301889636339</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.009034537728411</v>
       </c>
       <c r="M22">
-        <v>1.281443718853268</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5634772512911184</v>
+        <v>2.452779477476867</v>
       </c>
       <c r="O22">
-        <v>1.365769027610355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.535217428253304</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4584737252252609</v>
+        <v>3.846591130762761</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09594406611289941</v>
+        <v>0.354480230330438</v>
       </c>
       <c r="E23">
-        <v>0.508516832450006</v>
+        <v>0.6018595600248773</v>
       </c>
       <c r="F23">
-        <v>0.554193890433659</v>
+        <v>1.508268181367512</v>
       </c>
       <c r="G23">
-        <v>0.3996019437830114</v>
+        <v>1.912361407689616</v>
       </c>
       <c r="H23">
-        <v>0.2525265283988318</v>
+        <v>0.001571994116211117</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.007574306599836156</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.009594941108332</v>
       </c>
       <c r="K23">
-        <v>2.440441109670644</v>
+        <v>0.2615874206359221</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.973492543796965</v>
       </c>
       <c r="M23">
-        <v>1.232515827029388</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5738494418862672</v>
+        <v>2.359703354866383</v>
       </c>
       <c r="O23">
-        <v>1.328062725138381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.478777623442582</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3929069217079615</v>
+        <v>3.304238669872973</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08292623421925782</v>
+        <v>0.3077555818121454</v>
       </c>
       <c r="E24">
-        <v>0.431693879677681</v>
+        <v>0.5227407651961187</v>
       </c>
       <c r="F24">
-        <v>0.487772983428961</v>
+        <v>1.341867002649167</v>
       </c>
       <c r="G24">
-        <v>0.3502637204060477</v>
+        <v>1.648513376062368</v>
       </c>
       <c r="H24">
-        <v>0.2374866230524617</v>
+        <v>5.14006194403116E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0117709797778609</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8969805979022851</v>
       </c>
       <c r="K24">
-        <v>2.113928802339956</v>
+        <v>0.2957985340702356</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.845572182447313</v>
       </c>
       <c r="M24">
-        <v>1.049028778486637</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6153488281784192</v>
+        <v>2.021959650699529</v>
       </c>
       <c r="O24">
-        <v>1.191472233146044</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.269210154576399</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.323087089620401</v>
+        <v>2.7203092934148</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06888416115879892</v>
+        <v>0.2587541954734007</v>
       </c>
       <c r="E25">
-        <v>0.3524059973440572</v>
+        <v>0.4391213125993119</v>
       </c>
       <c r="F25">
-        <v>0.4200345029673755</v>
+        <v>1.174193302686533</v>
       </c>
       <c r="G25">
-        <v>0.3005627769284303</v>
+        <v>1.378704211068538</v>
       </c>
       <c r="H25">
-        <v>0.2232958633428979</v>
+        <v>0.0008239647545447149</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01777941366907587</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7831903353906569</v>
       </c>
       <c r="K25">
-        <v>1.762417915945917</v>
+        <v>0.335966886565469</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.7100143751355859</v>
       </c>
       <c r="M25">
-        <v>0.8542039869094751</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6645326902072881</v>
+        <v>1.662423862674245</v>
       </c>
       <c r="O25">
-        <v>1.055820106090863</v>
+        <v>1.044634053850956</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.293035943297355</v>
+        <v>2.299153778174684</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.222373788705724</v>
+        <v>0.2107040452971773</v>
       </c>
       <c r="E2">
-        <v>0.3747894604408657</v>
+        <v>0.3542622390041075</v>
       </c>
       <c r="F2">
-        <v>1.071672820757797</v>
+        <v>1.092613021730699</v>
       </c>
       <c r="G2">
-        <v>1.202877912561434</v>
+        <v>1.204401879157615</v>
       </c>
       <c r="H2">
-        <v>0.003132429250412627</v>
+        <v>0.002190037217348562</v>
       </c>
       <c r="I2">
-        <v>0.02243277037334712</v>
+        <v>0.01567331611550049</v>
       </c>
       <c r="J2">
-        <v>0.7113217349084948</v>
+        <v>0.7794120264585729</v>
       </c>
       <c r="K2">
-        <v>0.36847889726352</v>
+        <v>0.3291197858156538</v>
       </c>
       <c r="L2">
-        <v>0.6041556954114071</v>
+        <v>0.1296118968284529</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1185454596394449</v>
       </c>
       <c r="N2">
-        <v>1.383399919191561</v>
+        <v>0.570326961012384</v>
       </c>
       <c r="O2">
-        <v>0.8753471105596518</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.355781951323678</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.870355377104012</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.001649276142246</v>
+        <v>2.006624211954147</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1987022658382216</v>
+        <v>0.1878654424610033</v>
       </c>
       <c r="E3">
-        <v>0.33380301372096</v>
+        <v>0.313415629711713</v>
       </c>
       <c r="F3">
-        <v>0.9990875881393748</v>
+        <v>1.020817161299007</v>
       </c>
       <c r="G3">
-        <v>1.081257509824127</v>
+        <v>1.084555585990344</v>
       </c>
       <c r="H3">
-        <v>0.005633047701173177</v>
+        <v>0.00416635004642002</v>
       </c>
       <c r="I3">
-        <v>0.02664406136934838</v>
+        <v>0.01866192485135221</v>
       </c>
       <c r="J3">
-        <v>0.6615633706085902</v>
+        <v>0.7262123135383831</v>
       </c>
       <c r="K3">
-        <v>0.3918647367224528</v>
+        <v>0.3487654953296402</v>
       </c>
       <c r="L3">
-        <v>0.5373592897688155</v>
+        <v>0.1352309571158452</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1293683521379423</v>
       </c>
       <c r="N3">
-        <v>1.205787495592318</v>
+        <v>0.5029490820559062</v>
       </c>
       <c r="O3">
-        <v>0.7636924199479651</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.175463029083573</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7573785892414406</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.82243393740643</v>
+        <v>1.826538983237413</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1843036766724708</v>
+        <v>0.1739726217268327</v>
       </c>
       <c r="E4">
-        <v>0.308848796055571</v>
+        <v>0.2885838033465191</v>
       </c>
       <c r="F4">
-        <v>0.956119286805361</v>
+        <v>0.9779522385133248</v>
       </c>
       <c r="G4">
-        <v>1.008441860165206</v>
+        <v>1.012813688879703</v>
       </c>
       <c r="H4">
-        <v>0.007584884618813903</v>
+        <v>0.00573768603166519</v>
       </c>
       <c r="I4">
-        <v>0.02951554255195976</v>
+        <v>0.02071916362124648</v>
       </c>
       <c r="J4">
-        <v>0.6320786808701087</v>
+        <v>0.6939232549867711</v>
       </c>
       <c r="K4">
-        <v>0.4069027617469763</v>
+        <v>0.3614274931143071</v>
       </c>
       <c r="L4">
-        <v>0.4966866971624029</v>
+        <v>0.1391604230231662</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1364990795873551</v>
       </c>
       <c r="N4">
-        <v>1.097598720086609</v>
+        <v>0.4620077314865085</v>
       </c>
       <c r="O4">
-        <v>0.6953175819168962</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.065801574110367</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6882004474012717</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.749051700875839</v>
+        <v>1.752797450997605</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1785762180629291</v>
+        <v>0.1684348316207291</v>
       </c>
       <c r="E5">
-        <v>0.2991070132719429</v>
+        <v>0.2788407569651596</v>
       </c>
       <c r="F5">
-        <v>0.9376433580813881</v>
+        <v>0.9596040149095586</v>
       </c>
       <c r="G5">
-        <v>0.9778462387737648</v>
+        <v>0.9828377534323351</v>
       </c>
       <c r="H5">
-        <v>0.008479528160441688</v>
+        <v>0.00646360100032789</v>
       </c>
       <c r="I5">
-        <v>0.03084993622034693</v>
+        <v>0.02171732804362669</v>
       </c>
       <c r="J5">
-        <v>0.6196190880445158</v>
+        <v>0.6802389820737176</v>
       </c>
       <c r="K5">
-        <v>0.4131125466051948</v>
+        <v>0.366609865676446</v>
       </c>
       <c r="L5">
-        <v>0.4809448679175432</v>
+        <v>0.1407434046264449</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1395695515731203</v>
       </c>
       <c r="N5">
-        <v>1.055486250307609</v>
+        <v>0.4460542435501935</v>
       </c>
       <c r="O5">
-        <v>0.6679805774607601</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.022855954358761</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6604659802838668</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.736539922556233</v>
+        <v>1.740265777821662</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1777649341816527</v>
+        <v>0.1676351118952653</v>
       </c>
       <c r="E6">
-        <v>0.2979615344291631</v>
+        <v>0.2776201869965647</v>
       </c>
       <c r="F6">
-        <v>0.9329655276554831</v>
+        <v>0.9551583672101316</v>
       </c>
       <c r="G6">
-        <v>0.9711483521716531</v>
+        <v>0.9764722025490045</v>
       </c>
       <c r="H6">
-        <v>0.008634907615670998</v>
+        <v>0.006590377419141175</v>
       </c>
       <c r="I6">
-        <v>0.03119962819583488</v>
+        <v>0.02202502517821259</v>
       </c>
       <c r="J6">
-        <v>0.6167200658106964</v>
+        <v>0.6772271189975783</v>
       </c>
       <c r="K6">
-        <v>0.4140580605570401</v>
+        <v>0.3673335715064567</v>
       </c>
       <c r="L6">
-        <v>0.4792670399495904</v>
+        <v>0.1408480183613334</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1401426879025305</v>
       </c>
       <c r="N6">
-        <v>1.050685860632711</v>
+        <v>0.4441882912518196</v>
       </c>
       <c r="O6">
-        <v>0.6640422202759382</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.017573736974782</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6563713602304801</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.820563668901343</v>
+        <v>1.824975643184416</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1846055299790237</v>
+        <v>0.1736447653204038</v>
       </c>
       <c r="E7">
-        <v>0.3100040484954505</v>
+        <v>0.2889990424938063</v>
       </c>
       <c r="F7">
-        <v>0.9514146087005173</v>
+        <v>0.97111661095947</v>
       </c>
       <c r="G7">
-        <v>1.003541915901636</v>
+        <v>1.012222537786869</v>
       </c>
       <c r="H7">
-        <v>0.007598988940326484</v>
+        <v>0.005760583448184364</v>
       </c>
       <c r="I7">
-        <v>0.02985404060707975</v>
+        <v>0.02110157152327119</v>
       </c>
       <c r="J7">
-        <v>0.6296044685943798</v>
+        <v>0.6819160623870459</v>
       </c>
       <c r="K7">
-        <v>0.4067392141439035</v>
+        <v>0.3610750158613203</v>
       </c>
       <c r="L7">
-        <v>0.4990267771779742</v>
+        <v>0.1386832662726483</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1367204669113846</v>
       </c>
       <c r="N7">
-        <v>1.102996713822932</v>
+        <v>0.4633999360422223</v>
       </c>
       <c r="O7">
-        <v>0.6965872849666468</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.06891794230927</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6888487397761338</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.191437971452615</v>
+        <v>2.198002743516952</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2146877005260563</v>
+        <v>0.2012904339629245</v>
       </c>
       <c r="E8">
-        <v>0.3623305022277918</v>
+        <v>0.339774175110783</v>
       </c>
       <c r="F8">
-        <v>1.04041028557269</v>
+        <v>1.053444824698644</v>
       </c>
       <c r="G8">
-        <v>1.154587756801021</v>
+        <v>1.169885101340412</v>
       </c>
       <c r="H8">
-        <v>0.003905732945569396</v>
+        <v>0.002818849446625027</v>
       </c>
       <c r="I8">
-        <v>0.02420656484193184</v>
+        <v>0.01711728986979733</v>
       </c>
       <c r="J8">
-        <v>0.6908858290056514</v>
+        <v>0.7259028341393758</v>
       </c>
       <c r="K8">
-        <v>0.3761590383795843</v>
+        <v>0.3353359983220541</v>
       </c>
       <c r="L8">
-        <v>0.5844610676731747</v>
+        <v>0.130907848714688</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1223890878599914</v>
       </c>
       <c r="N8">
-        <v>1.329915355652986</v>
+        <v>0.5480978310796303</v>
       </c>
       <c r="O8">
-        <v>0.8389875002007656</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.295608393826683</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8319665088593027</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.918576678875468</v>
+        <v>2.92694253681907</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2744075328991613</v>
+        <v>0.2583077334605832</v>
       </c>
       <c r="E9">
-        <v>0.4647225042152101</v>
+        <v>0.4416441709032952</v>
       </c>
       <c r="F9">
-        <v>1.237221782562827</v>
+        <v>1.242695442371186</v>
       </c>
       <c r="G9">
-        <v>1.475923761043248</v>
+        <v>1.489638234237702</v>
       </c>
       <c r="H9">
-        <v>0.0002720312134629754</v>
+        <v>0.0001078183667977406</v>
       </c>
       <c r="I9">
-        <v>0.01507014493133418</v>
+        <v>0.01059830840881748</v>
       </c>
       <c r="J9">
-        <v>0.8247252649361201</v>
+        <v>0.854344490611112</v>
       </c>
       <c r="K9">
-        <v>0.3221223312404211</v>
+        <v>0.2904236648365002</v>
       </c>
       <c r="L9">
-        <v>0.7506957457369339</v>
+        <v>0.1202435177778236</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09796807148541742</v>
       </c>
       <c r="N9">
-        <v>1.772077466596386</v>
+        <v>0.7161410009640434</v>
       </c>
       <c r="O9">
-        <v>1.117136512755124</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.745191839978901</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.113288044555688</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.454279480366722</v>
+        <v>3.464713012921493</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3222784257721969</v>
+        <v>0.3001370768489693</v>
       </c>
       <c r="E10">
-        <v>0.5506883605600876</v>
+        <v>0.5227420990625617</v>
       </c>
       <c r="F10">
-        <v>1.36575331831898</v>
+        <v>1.351290455558839</v>
       </c>
       <c r="G10">
-        <v>1.697830521508337</v>
+        <v>1.736473038319275</v>
       </c>
       <c r="H10">
-        <v>0.0004119851466102276</v>
+        <v>0.0005250653184587506</v>
       </c>
       <c r="I10">
-        <v>0.01028296216581825</v>
+        <v>0.007382479010724197</v>
       </c>
       <c r="J10">
-        <v>0.9163649192667549</v>
+        <v>0.8835816533342893</v>
       </c>
       <c r="K10">
-        <v>0.2866476508933999</v>
+        <v>0.2614707073873745</v>
       </c>
       <c r="L10">
-        <v>0.8931724481740559</v>
+        <v>0.1152308905418558</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08271209113263733</v>
       </c>
       <c r="N10">
-        <v>2.092071437487817</v>
+        <v>0.8545415034818689</v>
       </c>
       <c r="O10">
-        <v>1.320123543322879</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.057854669625954</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.314721271117904</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.714088102626363</v>
+        <v>3.733705956266363</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3673543791449418</v>
+        <v>0.3325560884567693</v>
       </c>
       <c r="E11">
-        <v>0.6693890239442482</v>
+        <v>0.6212685984299284</v>
       </c>
       <c r="F11">
-        <v>1.208247990963045</v>
+        <v>1.190282731908312</v>
       </c>
       <c r="G11">
-        <v>1.57434207398498</v>
+        <v>1.690288873701434</v>
       </c>
       <c r="H11">
-        <v>0.019223230273262</v>
+        <v>0.0192916354331274</v>
       </c>
       <c r="I11">
-        <v>0.009452869943388009</v>
+        <v>0.007185634574211619</v>
       </c>
       <c r="J11">
-        <v>0.8451135799004135</v>
+        <v>0.7167960550161752</v>
       </c>
       <c r="K11">
-        <v>0.2902237047291099</v>
+        <v>0.2651390341588566</v>
       </c>
       <c r="L11">
-        <v>1.116471274547621</v>
+        <v>0.1213598550027868</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08034481605551758</v>
       </c>
       <c r="N11">
-        <v>2.123254161086606</v>
+        <v>1.046663187961542</v>
       </c>
       <c r="O11">
-        <v>1.38051280618464</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.029446753589554</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.35821450587008</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.822205937808576</v>
+        <v>3.848628672909967</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3962167387512494</v>
+        <v>0.3535408399231557</v>
       </c>
       <c r="E12">
-        <v>0.7572588033659287</v>
+        <v>0.6931240738714735</v>
       </c>
       <c r="F12">
-        <v>1.061314211311355</v>
+        <v>1.05276115970905</v>
       </c>
       <c r="G12">
-        <v>1.43375940904042</v>
+        <v>1.591237515414406</v>
       </c>
       <c r="H12">
-        <v>0.0579480561969703</v>
+        <v>0.05797819200584797</v>
       </c>
       <c r="I12">
-        <v>0.009085761835527784</v>
+        <v>0.006985582758020747</v>
       </c>
       <c r="J12">
-        <v>0.7706038744220791</v>
+        <v>0.6137021885846394</v>
       </c>
       <c r="K12">
-        <v>0.3179364011036974</v>
+        <v>0.2855587533553887</v>
       </c>
       <c r="L12">
-        <v>1.288255451559934</v>
+        <v>0.1320041952272355</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08537950957751583</v>
       </c>
       <c r="N12">
-        <v>2.070274888845347</v>
+        <v>1.190991375394219</v>
       </c>
       <c r="O12">
-        <v>1.384864816306276</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.93549445411324</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.350361799128819</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.817266226162531</v>
+        <v>3.848719548768941</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4144359238608928</v>
+        <v>0.3692908623194739</v>
       </c>
       <c r="E13">
-        <v>0.827395652280245</v>
+        <v>0.7517177923559615</v>
       </c>
       <c r="F13">
-        <v>0.9068462055896447</v>
+        <v>0.9229163083708301</v>
       </c>
       <c r="G13">
-        <v>1.264449738739955</v>
+        <v>1.431217501245499</v>
       </c>
       <c r="H13">
-        <v>0.1135395031903954</v>
+        <v>0.1135640190990159</v>
       </c>
       <c r="I13">
-        <v>0.009437742823586781</v>
+        <v>0.0072406162363432</v>
       </c>
       <c r="J13">
-        <v>0.6854246281851886</v>
+        <v>0.5608066387122079</v>
       </c>
       <c r="K13">
-        <v>0.3641944908604131</v>
+        <v>0.3160850064374223</v>
       </c>
       <c r="L13">
-        <v>1.432232938301865</v>
+        <v>0.1441931200967801</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09581985686058481</v>
       </c>
       <c r="N13">
-        <v>1.959371256173483</v>
+        <v>1.310724342186376</v>
       </c>
       <c r="O13">
-        <v>1.348880039544412</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.797607224639137</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.305817727399827</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.762236382546405</v>
+        <v>3.796438895414326</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4225605744794194</v>
+        <v>0.3782449661765526</v>
       </c>
       <c r="E14">
-        <v>0.8694137628857987</v>
+        <v>0.7876658597843686</v>
       </c>
       <c r="F14">
-        <v>0.7962179411996857</v>
+        <v>0.8343208708837011</v>
       </c>
       <c r="G14">
-        <v>1.133605462685694</v>
+        <v>1.293786768177</v>
       </c>
       <c r="H14">
-        <v>0.1627106414282764</v>
+        <v>0.1627413669506694</v>
       </c>
       <c r="I14">
-        <v>0.01011477004340122</v>
+        <v>0.007744134246035372</v>
       </c>
       <c r="J14">
-        <v>0.6212217760355543</v>
+        <v>0.5421301382761925</v>
       </c>
       <c r="K14">
-        <v>0.4071201776812785</v>
+        <v>0.3424107807685743</v>
       </c>
       <c r="L14">
-        <v>1.522537041588976</v>
+        <v>0.1532259846822974</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1060664530452016</v>
       </c>
       <c r="N14">
-        <v>1.857939085352825</v>
+        <v>1.385177416951393</v>
       </c>
       <c r="O14">
-        <v>1.306057922080996</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.68319564582518</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.258546242421019</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.724212847514195</v>
+        <v>3.758741814334883</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4222084627878644</v>
+        <v>0.3792501432883881</v>
       </c>
       <c r="E15">
-        <v>0.8753833497272154</v>
+        <v>0.793259166231266</v>
       </c>
       <c r="F15">
-        <v>0.7657508514032543</v>
+        <v>0.8117215914015361</v>
       </c>
       <c r="G15">
-        <v>1.093973764199148</v>
+        <v>1.247527337611189</v>
       </c>
       <c r="H15">
-        <v>0.1751360657623451</v>
+        <v>0.1751700836241668</v>
       </c>
       <c r="I15">
-        <v>0.01058678505015287</v>
+        <v>0.008133606462759957</v>
       </c>
       <c r="J15">
-        <v>0.602500829497842</v>
+        <v>0.5445491270315301</v>
       </c>
       <c r="K15">
-        <v>0.4200354624638862</v>
+        <v>0.3497844396650613</v>
       </c>
       <c r="L15">
-        <v>1.537456047235167</v>
+        <v>0.1551627266863562</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1094243724795483</v>
       </c>
       <c r="N15">
-        <v>1.82362112662301</v>
+        <v>1.397237355907322</v>
       </c>
       <c r="O15">
-        <v>1.287887774454305</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.647781729553941</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.239893465093388</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.49255720550417</v>
+        <v>3.523479107844594</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3970146802636236</v>
+        <v>0.364088742157108</v>
       </c>
       <c r="E16">
-        <v>0.821882142069029</v>
+        <v>0.7512543315999949</v>
       </c>
       <c r="F16">
-        <v>0.7402944312911615</v>
+        <v>0.8078055177738861</v>
       </c>
       <c r="G16">
-        <v>1.031133968240155</v>
+        <v>1.142386781242806</v>
       </c>
       <c r="H16">
-        <v>0.1620730704308357</v>
+        <v>0.1620813909926682</v>
       </c>
       <c r="I16">
-        <v>0.01259570776024965</v>
+        <v>0.009536001480974221</v>
       </c>
       <c r="J16">
-        <v>0.5792115173244667</v>
+        <v>0.6077651213905284</v>
       </c>
       <c r="K16">
-        <v>0.4222646109383454</v>
+        <v>0.3474299092305024</v>
       </c>
       <c r="L16">
-        <v>1.442634318535909</v>
+        <v>0.148740213592859</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1130602343677012</v>
       </c>
       <c r="N16">
-        <v>1.714500851966903</v>
+        <v>1.316065416563617</v>
       </c>
       <c r="O16">
-        <v>1.209411903239371</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.559448316044268</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.167524718228492</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.344656774766747</v>
+        <v>3.371648512669367</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3735101630433775</v>
+        <v>0.3463650183395117</v>
       </c>
       <c r="E17">
-        <v>0.7585645561710521</v>
+        <v>0.6984852942701281</v>
       </c>
       <c r="F17">
-        <v>0.7787244017922603</v>
+        <v>0.8494761723174094</v>
       </c>
       <c r="G17">
-        <v>1.051939780808226</v>
+        <v>1.138666859763362</v>
       </c>
       <c r="H17">
-        <v>0.1242523553063108</v>
+        <v>0.1242027328461432</v>
       </c>
       <c r="I17">
-        <v>0.01384800100929251</v>
+        <v>0.01040556985532071</v>
       </c>
       <c r="J17">
-        <v>0.5952802070640928</v>
+        <v>0.658357503943904</v>
       </c>
       <c r="K17">
-        <v>0.4004913971713826</v>
+        <v>0.3332459720677896</v>
       </c>
       <c r="L17">
-        <v>1.321801457728185</v>
+        <v>0.1402652124048878</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1104635979443671</v>
       </c>
       <c r="N17">
-        <v>1.684768448797371</v>
+        <v>1.212789529569619</v>
       </c>
       <c r="O17">
-        <v>1.172113079624353</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.55043594465954</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.13659788171563</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.252479782048056</v>
+        <v>3.274426600433628</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3489222719774006</v>
+        <v>0.326104235828268</v>
       </c>
       <c r="E18">
-        <v>0.6813758648921322</v>
+        <v>0.6333440336564564</v>
       </c>
       <c r="F18">
-        <v>0.8828917900214179</v>
+        <v>0.9451700634688649</v>
       </c>
       <c r="G18">
-        <v>1.152220631579809</v>
+        <v>1.21718961676018</v>
       </c>
       <c r="H18">
-        <v>0.07147494486989814</v>
+        <v>0.07138740853935843</v>
       </c>
       <c r="I18">
-        <v>0.01412857118249899</v>
+        <v>0.0104373688017656</v>
       </c>
       <c r="J18">
-        <v>0.6495100054829948</v>
+        <v>0.7220605787308614</v>
       </c>
       <c r="K18">
-        <v>0.3619309236261117</v>
+        <v>0.3100429885650584</v>
       </c>
       <c r="L18">
-        <v>1.169189897763857</v>
+        <v>0.130145526693763</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1030592731469984</v>
       </c>
       <c r="N18">
-        <v>1.714437935346211</v>
+        <v>1.083491637478005</v>
       </c>
       <c r="O18">
-        <v>1.164087954391249</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.60761573078355</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.137047393886917</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.20994758929163</v>
+        <v>3.226505490628881</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3269674739234176</v>
+        <v>0.3073577637544389</v>
       </c>
       <c r="E19">
-        <v>0.6065446351285786</v>
+        <v>0.5698887528725152</v>
       </c>
       <c r="F19">
-        <v>1.032415587980026</v>
+        <v>1.077897059451374</v>
       </c>
       <c r="G19">
-        <v>1.307062681400936</v>
+        <v>1.350217335912959</v>
       </c>
       <c r="H19">
-        <v>0.02625507006628425</v>
+        <v>0.02618301965895142</v>
       </c>
       <c r="I19">
-        <v>0.01413191877183273</v>
+        <v>0.01045459876636645</v>
       </c>
       <c r="J19">
-        <v>0.7290941267476683</v>
+        <v>0.7967800491352648</v>
       </c>
       <c r="K19">
-        <v>0.3276876359722358</v>
+        <v>0.2897362022518557</v>
       </c>
       <c r="L19">
-        <v>1.019223647465083</v>
+        <v>0.1223928382843535</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09563929216436939</v>
       </c>
       <c r="N19">
-        <v>1.800958100038059</v>
+        <v>0.9566816059015082</v>
       </c>
       <c r="O19">
-        <v>1.183002140125367</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.725464625139836</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.165434608627208</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.310793384641727</v>
+        <v>3.320505910608745</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3109185562529291</v>
+        <v>0.2923795984876705</v>
       </c>
       <c r="E20">
-        <v>0.5324749168803251</v>
+        <v>0.5071865678927026</v>
       </c>
       <c r="F20">
-        <v>1.316404372850073</v>
+        <v>1.31939122400675</v>
       </c>
       <c r="G20">
-        <v>1.623471426507848</v>
+        <v>1.644070091124064</v>
       </c>
       <c r="H20">
-        <v>0.000163661857541797</v>
+        <v>0.0002399844347102942</v>
       </c>
       <c r="I20">
-        <v>0.01233115038742394</v>
+        <v>0.009180559835442637</v>
       </c>
       <c r="J20">
-        <v>0.8840858826586384</v>
+        <v>0.903675961815452</v>
       </c>
       <c r="K20">
-        <v>0.2958633505311932</v>
+        <v>0.2687903459841987</v>
       </c>
       <c r="L20">
-        <v>0.8644940486312436</v>
+        <v>0.1163538576597514</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08652822040972152</v>
       </c>
       <c r="N20">
-        <v>2.026041755682712</v>
+        <v>0.8275957709442281</v>
       </c>
       <c r="O20">
-        <v>1.271747394579648</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.995687144512061</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.267339296854018</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.719730493524594</v>
+        <v>3.733046685702959</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3442854383809788</v>
+        <v>0.3101141347112986</v>
       </c>
       <c r="E21">
-        <v>0.5858452508842262</v>
+        <v>0.5478467704821881</v>
       </c>
       <c r="F21">
-        <v>1.461163529162306</v>
+        <v>1.389915877810637</v>
       </c>
       <c r="G21">
-        <v>1.842395834921604</v>
+        <v>1.950433954800701</v>
       </c>
       <c r="H21">
-        <v>0.001037816956269477</v>
+        <v>0.001113959645434259</v>
       </c>
       <c r="I21">
-        <v>0.008949562085509122</v>
+        <v>0.006936232316169466</v>
       </c>
       <c r="J21">
-        <v>0.9789807529220411</v>
+        <v>0.77219243301505</v>
       </c>
       <c r="K21">
-        <v>0.2693475596334638</v>
+        <v>0.2485062969485998</v>
       </c>
       <c r="L21">
-        <v>0.9485047243680498</v>
+        <v>0.1139381820766285</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07562809372626056</v>
       </c>
       <c r="N21">
-        <v>2.292294011960024</v>
+        <v>0.9015174667690076</v>
       </c>
       <c r="O21">
-        <v>1.433286551636016</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2.237242006531403</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.422280732151663</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.989553825016174</v>
+        <v>4.005461691283131</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3672494654908292</v>
+        <v>0.3218390462490817</v>
       </c>
       <c r="E22">
-        <v>0.6237223984695817</v>
+        <v>0.576123436264929</v>
       </c>
       <c r="F22">
-        <v>1.55166595015362</v>
+        <v>1.427467425147938</v>
       </c>
       <c r="G22">
-        <v>1.981927219595462</v>
+        <v>2.15724201469115</v>
       </c>
       <c r="H22">
-        <v>0.002317757703498846</v>
+        <v>0.002232321762764111</v>
       </c>
       <c r="I22">
-        <v>0.006810952305164264</v>
+        <v>0.005355011649192498</v>
       </c>
       <c r="J22">
-        <v>1.039281862312805</v>
+        <v>0.6807046474119431</v>
       </c>
       <c r="K22">
-        <v>0.2530301889636339</v>
+        <v>0.2365034632166871</v>
       </c>
       <c r="L22">
-        <v>1.009034537728411</v>
+        <v>0.1132112129633125</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06904254986913561</v>
       </c>
       <c r="N22">
-        <v>2.452779477476867</v>
+        <v>0.9538573371655445</v>
       </c>
       <c r="O22">
-        <v>1.535217428253304</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.377615142135795</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.518668674831517</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.846591130762761</v>
+        <v>3.86047677838917</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.354480230330438</v>
+        <v>0.3167170595424693</v>
       </c>
       <c r="E23">
-        <v>0.6018595600248773</v>
+        <v>0.5611498946059612</v>
       </c>
       <c r="F23">
-        <v>1.508268181367512</v>
+        <v>1.418754613063015</v>
       </c>
       <c r="G23">
-        <v>1.912361407689616</v>
+        <v>2.040172206392356</v>
       </c>
       <c r="H23">
-        <v>0.001571994116211117</v>
+        <v>0.001599293537420721</v>
       </c>
       <c r="I23">
-        <v>0.007574306599836156</v>
+        <v>0.005761689378017465</v>
       </c>
       <c r="J23">
-        <v>1.009594941108332</v>
+        <v>0.7526440333664937</v>
       </c>
       <c r="K23">
-        <v>0.2615874206359221</v>
+        <v>0.2423730993904796</v>
       </c>
       <c r="L23">
-        <v>0.973492543796965</v>
+        <v>0.1132280562511365</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07249219501399118</v>
       </c>
       <c r="N23">
-        <v>2.359703354866383</v>
+        <v>0.9246706996634515</v>
       </c>
       <c r="O23">
-        <v>1.478777623442582</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2.300287510936897</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.466580038567571</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.304238669872973</v>
+        <v>3.313137165284331</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3077555818121454</v>
+        <v>0.2897059198769654</v>
       </c>
       <c r="E24">
-        <v>0.5227407651961187</v>
+        <v>0.4987916149140545</v>
       </c>
       <c r="F24">
-        <v>1.341867002649167</v>
+        <v>1.341520634880254</v>
       </c>
       <c r="G24">
-        <v>1.648513376062368</v>
+        <v>1.664489808937446</v>
       </c>
       <c r="H24">
-        <v>5.14006194403116E-05</v>
+        <v>0.0001325782506635953</v>
       </c>
       <c r="I24">
-        <v>0.0117709797778609</v>
+        <v>0.008518719218526982</v>
       </c>
       <c r="J24">
-        <v>0.8969805979022851</v>
+        <v>0.9164569914639742</v>
       </c>
       <c r="K24">
-        <v>0.2957985340702356</v>
+        <v>0.2687151769998932</v>
       </c>
       <c r="L24">
-        <v>0.845572182447313</v>
+        <v>0.1161965013774031</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08662305261172865</v>
       </c>
       <c r="N24">
-        <v>2.021959650699529</v>
+        <v>0.8112076545009046</v>
       </c>
       <c r="O24">
-        <v>1.269210154576399</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.997211273945766</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.266351377540374</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.7203092934148</v>
+        <v>2.728318004121093</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2587541954734007</v>
+        <v>0.2441551464286817</v>
       </c>
       <c r="E25">
-        <v>0.4391213125993119</v>
+        <v>0.4165983251189189</v>
       </c>
       <c r="F25">
-        <v>1.174193302686533</v>
+        <v>1.187175255755207</v>
       </c>
       <c r="G25">
-        <v>1.378704211068538</v>
+        <v>1.388679922294529</v>
       </c>
       <c r="H25">
-        <v>0.0008239647545447149</v>
+        <v>0.000468134738416115</v>
       </c>
       <c r="I25">
-        <v>0.01777941366907587</v>
+        <v>0.01273138566602405</v>
       </c>
       <c r="J25">
-        <v>0.7831903353906569</v>
+        <v>0.8294896957154663</v>
       </c>
       <c r="K25">
-        <v>0.335966886565469</v>
+        <v>0.3018255508749332</v>
       </c>
       <c r="L25">
-        <v>0.7100143751355859</v>
+        <v>0.1225540873061495</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1041475597994217</v>
       </c>
       <c r="N25">
-        <v>1.662423862674245</v>
+        <v>0.6749685376860555</v>
       </c>
       <c r="O25">
-        <v>1.044634053850956</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.633685862992792</v>
       </c>
       <c r="Q25">
+        <v>1.040035739694908</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
